--- a/excel_reporting_templates/BatteryPass-6.0.0-schema-reporting_template.xlsx
+++ b/excel_reporting_templates/BatteryPass-6.0.0-schema-reporting_template.xlsx
@@ -487,9 +487,9 @@
     <col width="2.4" customWidth="1" min="1" max="1"/>
     <col width="21.6" customWidth="1" min="2" max="2"/>
     <col width="16.8" customWidth="1" min="3" max="3"/>
-    <col width="27.6" customWidth="1" min="4" max="4"/>
-    <col width="24" customWidth="1" min="5" max="5"/>
-    <col width="28.8" customWidth="1" min="6" max="6"/>
+    <col width="28.8" customWidth="1" min="4" max="4"/>
+    <col width="25.2" customWidth="1" min="5" max="5"/>
+    <col width="30" customWidth="1" min="6" max="6"/>
     <col width="50" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
     <col width="50" customWidth="1" min="9" max="9"/>
@@ -503,12 +503,12 @@
     <col width="50" customWidth="1" min="17" max="17"/>
     <col width="50" customWidth="1" min="18" max="18"/>
     <col width="50" customWidth="1" min="19" max="19"/>
-    <col width="30" customWidth="1" min="20" max="20"/>
+    <col width="31.2" customWidth="1" min="20" max="20"/>
     <col width="50" customWidth="1" min="21" max="21"/>
-    <col width="42" customWidth="1" min="22" max="22"/>
-    <col width="48" customWidth="1" min="23" max="23"/>
-    <col width="40.8" customWidth="1" min="24" max="24"/>
-    <col width="39.6" customWidth="1" min="25" max="25"/>
+    <col width="44.4" customWidth="1" min="22" max="22"/>
+    <col width="50" customWidth="1" min="23" max="23"/>
+    <col width="43.2" customWidth="1" min="24" max="24"/>
+    <col width="42" customWidth="1" min="25" max="25"/>
     <col width="50" customWidth="1" min="26" max="26"/>
     <col width="50" customWidth="1" min="27" max="27"/>
     <col width="50" customWidth="1" min="28" max="28"/>
@@ -529,81 +529,81 @@
     <col width="50" customWidth="1" min="43" max="43"/>
     <col width="50" customWidth="1" min="44" max="44"/>
     <col width="50" customWidth="1" min="45" max="45"/>
-    <col width="46.8" customWidth="1" min="46" max="46"/>
+    <col width="49.2" customWidth="1" min="46" max="46"/>
     <col width="50" customWidth="1" min="47" max="47"/>
     <col width="50" customWidth="1" min="48" max="48"/>
     <col width="50" customWidth="1" min="49" max="49"/>
     <col width="50" customWidth="1" min="50" max="50"/>
-    <col width="45.6" customWidth="1" min="51" max="51"/>
-    <col width="45.6" customWidth="1" min="52" max="52"/>
+    <col width="48" customWidth="1" min="51" max="51"/>
+    <col width="48" customWidth="1" min="52" max="52"/>
     <col width="50" customWidth="1" min="53" max="53"/>
     <col width="50" customWidth="1" min="54" max="54"/>
     <col width="50" customWidth="1" min="55" max="55"/>
     <col width="50" customWidth="1" min="56" max="56"/>
     <col width="50" customWidth="1" min="57" max="57"/>
-    <col width="25.2" customWidth="1" min="58" max="58"/>
-    <col width="38.4" customWidth="1" min="59" max="59"/>
-    <col width="38.4" customWidth="1" min="60" max="60"/>
+    <col width="26.4" customWidth="1" min="58" max="58"/>
+    <col width="42" customWidth="1" min="59" max="59"/>
+    <col width="42" customWidth="1" min="60" max="60"/>
     <col width="50" customWidth="1" min="61" max="61"/>
     <col width="50" customWidth="1" min="62" max="62"/>
     <col width="50" customWidth="1" min="63" max="63"/>
-    <col width="38.4" customWidth="1" min="64" max="64"/>
-    <col width="39.6" customWidth="1" min="65" max="65"/>
-    <col width="39.6" customWidth="1" min="66" max="66"/>
+    <col width="42" customWidth="1" min="64" max="64"/>
+    <col width="43.2" customWidth="1" min="65" max="65"/>
+    <col width="43.2" customWidth="1" min="66" max="66"/>
     <col width="50" customWidth="1" min="67" max="67"/>
     <col width="50" customWidth="1" min="68" max="68"/>
     <col width="50" customWidth="1" min="69" max="69"/>
-    <col width="39.6" customWidth="1" min="70" max="70"/>
-    <col width="38.4" customWidth="1" min="71" max="71"/>
-    <col width="38.4" customWidth="1" min="72" max="72"/>
+    <col width="43.2" customWidth="1" min="70" max="70"/>
+    <col width="42" customWidth="1" min="71" max="71"/>
+    <col width="42" customWidth="1" min="72" max="72"/>
     <col width="50" customWidth="1" min="73" max="73"/>
     <col width="50" customWidth="1" min="74" max="74"/>
     <col width="50" customWidth="1" min="75" max="75"/>
-    <col width="38.4" customWidth="1" min="76" max="76"/>
+    <col width="42" customWidth="1" min="76" max="76"/>
     <col width="50" customWidth="1" min="77" max="77"/>
     <col width="50" customWidth="1" min="78" max="78"/>
     <col width="50" customWidth="1" min="79" max="79"/>
-    <col width="36" customWidth="1" min="80" max="80"/>
+    <col width="39.6" customWidth="1" min="80" max="80"/>
     <col width="50" customWidth="1" min="81" max="81"/>
     <col width="50" customWidth="1" min="82" max="82"/>
     <col width="50" customWidth="1" min="83" max="83"/>
-    <col width="36" customWidth="1" min="84" max="84"/>
-    <col width="36" customWidth="1" min="85" max="85"/>
-    <col width="42" customWidth="1" min="86" max="86"/>
-    <col width="40.8" customWidth="1" min="87" max="87"/>
-    <col width="40.8" customWidth="1" min="88" max="88"/>
-    <col width="40.8" customWidth="1" min="89" max="89"/>
+    <col width="39.6" customWidth="1" min="84" max="84"/>
+    <col width="39.6" customWidth="1" min="85" max="85"/>
+    <col width="45.6" customWidth="1" min="86" max="86"/>
+    <col width="44.4" customWidth="1" min="87" max="87"/>
+    <col width="44.4" customWidth="1" min="88" max="88"/>
+    <col width="44.4" customWidth="1" min="89" max="89"/>
     <col width="50" customWidth="1" min="90" max="90"/>
     <col width="50" customWidth="1" min="91" max="91"/>
     <col width="50" customWidth="1" min="92" max="92"/>
-    <col width="40.8" customWidth="1" min="93" max="93"/>
+    <col width="44.4" customWidth="1" min="93" max="93"/>
     <col width="50" customWidth="1" min="94" max="94"/>
     <col width="50" customWidth="1" min="95" max="95"/>
     <col width="50" customWidth="1" min="96" max="96"/>
     <col width="50" customWidth="1" min="97" max="97"/>
     <col width="50" customWidth="1" min="98" max="98"/>
     <col width="50" customWidth="1" min="99" max="99"/>
-    <col width="49.2" customWidth="1" min="100" max="100"/>
-    <col width="43.2" customWidth="1" min="101" max="101"/>
-    <col width="48" customWidth="1" min="102" max="102"/>
-    <col width="43.2" customWidth="1" min="103" max="103"/>
+    <col width="50" customWidth="1" min="100" max="100"/>
+    <col width="46.8" customWidth="1" min="101" max="101"/>
+    <col width="50" customWidth="1" min="102" max="102"/>
+    <col width="46.8" customWidth="1" min="103" max="103"/>
     <col width="50" customWidth="1" min="104" max="104"/>
     <col width="50" customWidth="1" min="105" max="105"/>
     <col width="50" customWidth="1" min="106" max="106"/>
     <col width="50" customWidth="1" min="107" max="107"/>
     <col width="50" customWidth="1" min="108" max="108"/>
     <col width="50" customWidth="1" min="109" max="109"/>
-    <col width="49.2" customWidth="1" min="110" max="110"/>
-    <col width="43.2" customWidth="1" min="111" max="111"/>
-    <col width="48" customWidth="1" min="112" max="112"/>
-    <col width="43.2" customWidth="1" min="113" max="113"/>
+    <col width="50" customWidth="1" min="110" max="110"/>
+    <col width="46.8" customWidth="1" min="111" max="111"/>
+    <col width="50" customWidth="1" min="112" max="112"/>
+    <col width="46.8" customWidth="1" min="113" max="113"/>
     <col width="50" customWidth="1" min="114" max="114"/>
     <col width="50" customWidth="1" min="115" max="115"/>
     <col width="50" customWidth="1" min="116" max="116"/>
     <col width="50" customWidth="1" min="117" max="117"/>
     <col width="50" customWidth="1" min="118" max="118"/>
     <col width="50" customWidth="1" min="119" max="119"/>
-    <col width="49.2" customWidth="1" min="120" max="120"/>
+    <col width="50" customWidth="1" min="120" max="120"/>
     <col width="50" customWidth="1" min="121" max="121"/>
     <col width="50" customWidth="1" min="122" max="122"/>
     <col width="50" customWidth="1" min="123" max="123"/>
@@ -611,62 +611,62 @@
     <col width="50" customWidth="1" min="125" max="125"/>
     <col width="50" customWidth="1" min="126" max="126"/>
     <col width="50" customWidth="1" min="127" max="127"/>
-    <col width="44.4" customWidth="1" min="128" max="128"/>
-    <col width="44.4" customWidth="1" min="129" max="129"/>
+    <col width="48" customWidth="1" min="128" max="128"/>
+    <col width="48" customWidth="1" min="129" max="129"/>
     <col width="50" customWidth="1" min="130" max="130"/>
     <col width="50" customWidth="1" min="131" max="131"/>
     <col width="50" customWidth="1" min="132" max="132"/>
-    <col width="39.6" customWidth="1" min="133" max="133"/>
+    <col width="43.2" customWidth="1" min="133" max="133"/>
     <col width="50" customWidth="1" min="134" max="134"/>
     <col width="50" customWidth="1" min="135" max="135"/>
     <col width="50" customWidth="1" min="136" max="136"/>
-    <col width="39.6" customWidth="1" min="137" max="137"/>
-    <col width="39.6" customWidth="1" min="138" max="138"/>
-    <col width="45.6" customWidth="1" min="139" max="139"/>
-    <col width="44.4" customWidth="1" min="140" max="140"/>
-    <col width="39.6" customWidth="1" min="141" max="141"/>
-    <col width="42" customWidth="1" min="142" max="142"/>
-    <col width="42" customWidth="1" min="143" max="143"/>
-    <col width="45.6" customWidth="1" min="144" max="144"/>
-    <col width="34.8" customWidth="1" min="145" max="145"/>
-    <col width="39.6" customWidth="1" min="146" max="146"/>
+    <col width="43.2" customWidth="1" min="137" max="137"/>
+    <col width="43.2" customWidth="1" min="138" max="138"/>
+    <col width="49.2" customWidth="1" min="139" max="139"/>
+    <col width="48" customWidth="1" min="140" max="140"/>
+    <col width="43.2" customWidth="1" min="141" max="141"/>
+    <col width="45.6" customWidth="1" min="142" max="142"/>
+    <col width="45.6" customWidth="1" min="143" max="143"/>
+    <col width="48" customWidth="1" min="144" max="144"/>
+    <col width="37.2" customWidth="1" min="145" max="145"/>
+    <col width="42" customWidth="1" min="146" max="146"/>
     <col width="50" customWidth="1" min="147" max="147"/>
     <col width="50" customWidth="1" min="148" max="148"/>
     <col width="50" customWidth="1" min="149" max="149"/>
-    <col width="39.6" customWidth="1" min="150" max="150"/>
-    <col width="39.6" customWidth="1" min="151" max="151"/>
-    <col width="40.8" customWidth="1" min="152" max="152"/>
-    <col width="34.8" customWidth="1" min="153" max="153"/>
-    <col width="34.8" customWidth="1" min="154" max="154"/>
-    <col width="39.6" customWidth="1" min="155" max="155"/>
-    <col width="44.4" customWidth="1" min="156" max="156"/>
+    <col width="42" customWidth="1" min="150" max="150"/>
+    <col width="42" customWidth="1" min="151" max="151"/>
+    <col width="43.2" customWidth="1" min="152" max="152"/>
+    <col width="38.4" customWidth="1" min="153" max="153"/>
+    <col width="38.4" customWidth="1" min="154" max="154"/>
+    <col width="43.2" customWidth="1" min="155" max="155"/>
+    <col width="48" customWidth="1" min="156" max="156"/>
     <col width="50" customWidth="1" min="157" max="157"/>
     <col width="50" customWidth="1" min="158" max="158"/>
     <col width="50" customWidth="1" min="159" max="159"/>
     <col width="50" customWidth="1" min="160" max="160"/>
-    <col width="36" customWidth="1" min="161" max="161"/>
-    <col width="43.2" customWidth="1" min="162" max="162"/>
-    <col width="39.6" customWidth="1" min="163" max="163"/>
-    <col width="42" customWidth="1" min="164" max="164"/>
-    <col width="39.6" customWidth="1" min="165" max="165"/>
-    <col width="48" customWidth="1" min="166" max="166"/>
-    <col width="34.8" customWidth="1" min="167" max="167"/>
-    <col width="37.2" customWidth="1" min="168" max="168"/>
-    <col width="37.2" customWidth="1" min="169" max="169"/>
-    <col width="42" customWidth="1" min="170" max="170"/>
-    <col width="38.4" customWidth="1" min="171" max="171"/>
+    <col width="39.6" customWidth="1" min="161" max="161"/>
+    <col width="46.8" customWidth="1" min="162" max="162"/>
+    <col width="43.2" customWidth="1" min="163" max="163"/>
+    <col width="45.6" customWidth="1" min="164" max="164"/>
+    <col width="43.2" customWidth="1" min="165" max="165"/>
+    <col width="50" customWidth="1" min="166" max="166"/>
+    <col width="38.4" customWidth="1" min="167" max="167"/>
+    <col width="40.8" customWidth="1" min="168" max="168"/>
+    <col width="40.8" customWidth="1" min="169" max="169"/>
+    <col width="45.6" customWidth="1" min="170" max="170"/>
+    <col width="42" customWidth="1" min="171" max="171"/>
     <col width="50" customWidth="1" min="172" max="172"/>
-    <col width="45.6" customWidth="1" min="173" max="173"/>
+    <col width="49.2" customWidth="1" min="173" max="173"/>
     <col width="50" customWidth="1" min="174" max="174"/>
     <col width="50" customWidth="1" min="175" max="175"/>
     <col width="50" customWidth="1" min="176" max="176"/>
-    <col width="42" customWidth="1" min="177" max="177"/>
-    <col width="42" customWidth="1" min="178" max="178"/>
-    <col width="44.4" customWidth="1" min="179" max="179"/>
-    <col width="46.8" customWidth="1" min="180" max="180"/>
+    <col width="45.6" customWidth="1" min="177" max="177"/>
+    <col width="45.6" customWidth="1" min="178" max="178"/>
+    <col width="46.8" customWidth="1" min="179" max="179"/>
+    <col width="50" customWidth="1" min="180" max="180"/>
     <col width="50" customWidth="1" min="181" max="181"/>
-    <col width="45.6" customWidth="1" min="182" max="182"/>
-    <col width="48" customWidth="1" min="183" max="183"/>
+    <col width="49.2" customWidth="1" min="182" max="182"/>
+    <col width="50" customWidth="1" min="183" max="183"/>
     <col width="50" customWidth="1" min="184" max="184"/>
     <col width="50" customWidth="1" min="185" max="185"/>
     <col width="50" customWidth="1" min="186" max="186"/>
@@ -675,20 +675,20 @@
     <col width="50" customWidth="1" min="189" max="189"/>
     <col width="50" customWidth="1" min="190" max="190"/>
     <col width="50" customWidth="1" min="191" max="191"/>
-    <col width="46.8" customWidth="1" min="192" max="192"/>
-    <col width="45.6" customWidth="1" min="193" max="193"/>
-    <col width="42" customWidth="1" min="194" max="194"/>
-    <col width="43.2" customWidth="1" min="195" max="195"/>
+    <col width="50" customWidth="1" min="192" max="192"/>
+    <col width="49.2" customWidth="1" min="193" max="193"/>
+    <col width="45.6" customWidth="1" min="194" max="194"/>
+    <col width="46.8" customWidth="1" min="195" max="195"/>
     <col width="50" customWidth="1" min="196" max="196"/>
     <col width="50" customWidth="1" min="197" max="197"/>
     <col width="50" customWidth="1" min="198" max="198"/>
-    <col width="46.8" customWidth="1" min="199" max="199"/>
-    <col width="43.2" customWidth="1" min="200" max="200"/>
-    <col width="42" customWidth="1" min="201" max="201"/>
-    <col width="48" customWidth="1" min="202" max="202"/>
-    <col width="49.2" customWidth="1" min="203" max="203"/>
-    <col width="46.8" customWidth="1" min="204" max="204"/>
-    <col width="45.6" customWidth="1" min="205" max="205"/>
+    <col width="49.2" customWidth="1" min="199" max="199"/>
+    <col width="48" customWidth="1" min="200" max="200"/>
+    <col width="46.8" customWidth="1" min="201" max="201"/>
+    <col width="50" customWidth="1" min="202" max="202"/>
+    <col width="50" customWidth="1" min="203" max="203"/>
+    <col width="50" customWidth="1" min="204" max="204"/>
+    <col width="50" customWidth="1" min="205" max="205"/>
     <col width="50" customWidth="1" min="206" max="206"/>
     <col width="50" customWidth="1" min="207" max="207"/>
     <col width="50" customWidth="1" min="208" max="208"/>
@@ -709,9 +709,9 @@
     <col width="50" customWidth="1" min="223" max="223"/>
     <col width="50" customWidth="1" min="224" max="224"/>
     <col width="50" customWidth="1" min="225" max="225"/>
-    <col width="44.4" customWidth="1" min="226" max="226"/>
-    <col width="43.2" customWidth="1" min="227" max="227"/>
-    <col width="49.2" customWidth="1" min="228" max="228"/>
+    <col width="49.2" customWidth="1" min="226" max="226"/>
+    <col width="48" customWidth="1" min="227" max="227"/>
+    <col width="50" customWidth="1" min="228" max="228"/>
     <col width="50" customWidth="1" min="229" max="229"/>
     <col width="50" customWidth="1" min="230" max="230"/>
     <col width="50" customWidth="1" min="231" max="231"/>
@@ -721,59 +721,59 @@
     <col width="50" customWidth="1" min="235" max="235"/>
     <col width="50" customWidth="1" min="236" max="236"/>
     <col width="50" customWidth="1" min="237" max="237"/>
-    <col width="43.2" customWidth="1" min="238" max="238"/>
+    <col width="44.4" customWidth="1" min="238" max="238"/>
     <col width="50" customWidth="1" min="239" max="239"/>
     <col width="50" customWidth="1" min="240" max="240"/>
     <col width="50" customWidth="1" min="241" max="241"/>
-    <col width="48" customWidth="1" min="242" max="242"/>
+    <col width="50" customWidth="1" min="242" max="242"/>
     <col width="50" customWidth="1" min="243" max="243"/>
-    <col width="46.8" customWidth="1" min="244" max="244"/>
-    <col width="49.2" customWidth="1" min="245" max="245"/>
+    <col width="49.2" customWidth="1" min="244" max="244"/>
+    <col width="50" customWidth="1" min="245" max="245"/>
     <col width="50" customWidth="1" min="246" max="246"/>
-    <col width="48" customWidth="1" min="247" max="247"/>
-    <col width="48" customWidth="1" min="248" max="248"/>
+    <col width="50" customWidth="1" min="247" max="247"/>
+    <col width="50" customWidth="1" min="248" max="248"/>
     <col width="50" customWidth="1" min="249" max="249"/>
-    <col width="46.8" customWidth="1" min="250" max="250"/>
+    <col width="49.2" customWidth="1" min="250" max="250"/>
     <col width="50" customWidth="1" min="251" max="251"/>
     <col width="50" customWidth="1" min="252" max="252"/>
     <col width="50" customWidth="1" min="253" max="253"/>
-    <col width="44.4" customWidth="1" min="254" max="254"/>
-    <col width="49.2" customWidth="1" min="255" max="255"/>
-    <col width="38.4" customWidth="1" min="256" max="256"/>
-    <col width="43.2" customWidth="1" min="257" max="257"/>
-    <col width="37.2" customWidth="1" min="258" max="258"/>
-    <col width="39.6" customWidth="1" min="259" max="259"/>
-    <col width="44.4" customWidth="1" min="260" max="260"/>
-    <col width="38.4" customWidth="1" min="261" max="261"/>
-    <col width="39.6" customWidth="1" min="262" max="262"/>
-    <col width="44.4" customWidth="1" min="263" max="263"/>
-    <col width="38.4" customWidth="1" min="264" max="264"/>
-    <col width="34.8" customWidth="1" min="265" max="265"/>
-    <col width="39.6" customWidth="1" min="266" max="266"/>
-    <col width="33.6" customWidth="1" min="267" max="267"/>
-    <col width="45.6" customWidth="1" min="268" max="268"/>
+    <col width="46.8" customWidth="1" min="254" max="254"/>
+    <col width="50" customWidth="1" min="255" max="255"/>
+    <col width="40.8" customWidth="1" min="256" max="256"/>
+    <col width="45.6" customWidth="1" min="257" max="257"/>
+    <col width="39.6" customWidth="1" min="258" max="258"/>
+    <col width="42" customWidth="1" min="259" max="259"/>
+    <col width="46.8" customWidth="1" min="260" max="260"/>
+    <col width="40.8" customWidth="1" min="261" max="261"/>
+    <col width="42" customWidth="1" min="262" max="262"/>
+    <col width="46.8" customWidth="1" min="263" max="263"/>
+    <col width="40.8" customWidth="1" min="264" max="264"/>
+    <col width="37.2" customWidth="1" min="265" max="265"/>
+    <col width="42" customWidth="1" min="266" max="266"/>
+    <col width="36" customWidth="1" min="267" max="267"/>
+    <col width="48" customWidth="1" min="268" max="268"/>
     <col width="50" customWidth="1" min="269" max="269"/>
-    <col width="44.4" customWidth="1" min="270" max="270"/>
-    <col width="21.6" customWidth="1" min="271" max="271"/>
-    <col width="22.8" customWidth="1" min="272" max="272"/>
-    <col width="18" customWidth="1" min="273" max="273"/>
-    <col width="20.4" customWidth="1" min="274" max="274"/>
-    <col width="19.2" customWidth="1" min="275" max="275"/>
-    <col width="18" customWidth="1" min="276" max="276"/>
-    <col width="27.6" customWidth="1" min="277" max="277"/>
-    <col width="21.6" customWidth="1" min="278" max="278"/>
-    <col width="32.4" customWidth="1" min="279" max="279"/>
-    <col width="32.4" customWidth="1" min="280" max="280"/>
-    <col width="24" customWidth="1" min="281" max="281"/>
-    <col width="28.8" customWidth="1" min="282" max="282"/>
-    <col width="37.2" customWidth="1" min="283" max="283"/>
-    <col width="30" customWidth="1" min="284" max="284"/>
-    <col width="30" customWidth="1" min="285" max="285"/>
-    <col width="25.2" customWidth="1" min="286" max="286"/>
-    <col width="37.2" customWidth="1" min="287" max="287"/>
+    <col width="46.8" customWidth="1" min="270" max="270"/>
+    <col width="22.8" customWidth="1" min="271" max="271"/>
+    <col width="24" customWidth="1" min="272" max="272"/>
+    <col width="19.2" customWidth="1" min="273" max="273"/>
+    <col width="21.6" customWidth="1" min="274" max="274"/>
+    <col width="20.4" customWidth="1" min="275" max="275"/>
+    <col width="19.2" customWidth="1" min="276" max="276"/>
+    <col width="28.8" customWidth="1" min="277" max="277"/>
+    <col width="22.8" customWidth="1" min="278" max="278"/>
+    <col width="33.6" customWidth="1" min="279" max="279"/>
+    <col width="33.6" customWidth="1" min="280" max="280"/>
+    <col width="25.2" customWidth="1" min="281" max="281"/>
+    <col width="30" customWidth="1" min="282" max="282"/>
+    <col width="38.4" customWidth="1" min="283" max="283"/>
+    <col width="31.2" customWidth="1" min="284" max="284"/>
+    <col width="31.2" customWidth="1" min="285" max="285"/>
+    <col width="26.4" customWidth="1" min="286" max="286"/>
+    <col width="40.8" customWidth="1" min="287" max="287"/>
     <col width="50" customWidth="1" min="288" max="288"/>
     <col width="50" customWidth="1" min="289" max="289"/>
-    <col width="22.8" customWidth="1" min="290" max="290"/>
+    <col width="24" customWidth="1" min="290" max="290"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -794,1437 +794,1437 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>identification_category</t>
+          <t>identification__category</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>identification_idDmc</t>
+          <t>identification__idDmc</t>
         </is>
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
-          <t>identification_chemistry</t>
+          <t>identification__chemistry</t>
         </is>
       </c>
       <c r="G1" s="2" t="inlineStr">
         <is>
-          <t>identification_identification_serial[0]_key</t>
+          <t>identification__identification__serial[0]__key</t>
         </is>
       </c>
       <c r="H1" s="2" t="inlineStr">
         <is>
-          <t>identification_identification_serial[0]_value</t>
+          <t>identification__identification__serial[0]__value</t>
         </is>
       </c>
       <c r="I1" s="2" t="inlineStr">
         <is>
-          <t>identification_identification_batch[0]_key</t>
+          <t>identification__identification__batch[0]__key</t>
         </is>
       </c>
       <c r="J1" s="2" t="inlineStr">
         <is>
-          <t>identification_identification_batch[0]_value</t>
+          <t>identification__identification__batch[0]__value</t>
         </is>
       </c>
       <c r="K1" s="2" t="inlineStr">
         <is>
-          <t>identification_identification_type_manufacturerPartId</t>
+          <t>identification__identification__type__manufacturerPartId</t>
         </is>
       </c>
       <c r="L1" s="2" t="inlineStr">
         <is>
-          <t>identification_identification_type_nameAtManufacturer</t>
+          <t>identification__identification__type__nameAtManufacturer</t>
         </is>
       </c>
       <c r="M1" s="2" t="inlineStr">
         <is>
-          <t>identification_identification_codes[0]_key</t>
+          <t>identification__identification__codes[0]__key</t>
         </is>
       </c>
       <c r="N1" s="2" t="inlineStr">
         <is>
-          <t>identification_identification_codes[0]_value</t>
+          <t>identification__identification__codes[0]__value</t>
         </is>
       </c>
       <c r="O1" s="2" t="inlineStr">
         <is>
-          <t>identification_identification_dataCarrier_carrierType</t>
+          <t>identification__identification__dataCarrier__carrierType</t>
         </is>
       </c>
       <c r="P1" s="2" t="inlineStr">
         <is>
-          <t>identification_identification_dataCarrier_carrierLayout</t>
+          <t>identification__identification__dataCarrier__carrierLayout</t>
         </is>
       </c>
       <c r="Q1" s="2" t="inlineStr">
         <is>
-          <t>identification_identification_classification[0]_classificationStandard</t>
+          <t>identification__identification__classification[0]__classificationStandard</t>
         </is>
       </c>
       <c r="R1" s="2" t="inlineStr">
         <is>
-          <t>identification_identification_classification[0]_classificationID</t>
+          <t>identification__identification__classification[0]__classificationID</t>
         </is>
       </c>
       <c r="S1" s="3" t="inlineStr">
         <is>
-          <t>identification_identification_classification[0]_classificationDescription</t>
+          <t>identification__identification__classification[0]__classificationDescription</t>
         </is>
       </c>
       <c r="T1" s="3" t="inlineStr">
         <is>
-          <t>operation_intoServiceDate</t>
+          <t>operation__intoServiceDate</t>
         </is>
       </c>
       <c r="U1" s="2" t="inlineStr">
         <is>
-          <t>operation_manufacturer_facility[0]_facility</t>
+          <t>operation__manufacturer__facility[0]__facility</t>
         </is>
       </c>
       <c r="V1" s="2" t="inlineStr">
         <is>
-          <t>operation_manufacturer_manufacturer</t>
+          <t>operation__manufacturer__manufacturer</t>
         </is>
       </c>
       <c r="W1" s="3" t="inlineStr">
         <is>
-          <t>operation_manufacturer_manufacturingDate</t>
+          <t>operation__manufacturer__manufacturingDate</t>
         </is>
       </c>
       <c r="X1" s="2" t="inlineStr">
         <is>
-          <t>characteristics_warranty_lifeValue</t>
+          <t>characteristics__warranty__lifeValue</t>
         </is>
       </c>
       <c r="Y1" s="2" t="inlineStr">
         <is>
-          <t>characteristics_warranty_lifeUnit</t>
+          <t>characteristics__warranty__lifeUnit</t>
         </is>
       </c>
       <c r="Z1" s="2" t="inlineStr">
         <is>
-          <t>characteristics_physicalDimension_height_value</t>
+          <t>characteristics__physicalDimension__height__value</t>
         </is>
       </c>
       <c r="AA1" s="2" t="inlineStr">
         <is>
-          <t>characteristics_physicalDimension_height_unit</t>
+          <t>characteristics__physicalDimension__height__unit</t>
         </is>
       </c>
       <c r="AB1" s="2" t="inlineStr">
         <is>
-          <t>characteristics_physicalDimension_length_value</t>
+          <t>characteristics__physicalDimension__length__value</t>
         </is>
       </c>
       <c r="AC1" s="2" t="inlineStr">
         <is>
-          <t>characteristics_physicalDimension_length_unit</t>
+          <t>characteristics__physicalDimension__length__unit</t>
         </is>
       </c>
       <c r="AD1" s="2" t="inlineStr">
         <is>
-          <t>characteristics_physicalDimension_width_value</t>
+          <t>characteristics__physicalDimension__width__value</t>
         </is>
       </c>
       <c r="AE1" s="2" t="inlineStr">
         <is>
-          <t>characteristics_physicalDimension_width_unit</t>
+          <t>characteristics__physicalDimension__width__unit</t>
         </is>
       </c>
       <c r="AF1" s="2" t="inlineStr">
         <is>
-          <t>characteristics_physicalDimension_weight_value</t>
+          <t>characteristics__physicalDimension__weight__value</t>
         </is>
       </c>
       <c r="AG1" s="2" t="inlineStr">
         <is>
-          <t>characteristics_physicalDimension_weight_unit</t>
+          <t>characteristics__physicalDimension__weight__unit</t>
         </is>
       </c>
       <c r="AH1" s="2" t="inlineStr">
         <is>
-          <t>sustainability_documents_separateCollection[0]_content</t>
+          <t>sustainability__documents__separateCollection[0]__content</t>
         </is>
       </c>
       <c r="AI1" s="2" t="inlineStr">
         <is>
-          <t>sustainability_documents_separateCollection[0]_contentType</t>
+          <t>sustainability__documents__separateCollection[0]__contentType</t>
         </is>
       </c>
       <c r="AJ1" s="2" t="inlineStr">
         <is>
-          <t>sustainability_documents_separateCollection[0]_header</t>
+          <t>sustainability__documents__separateCollection[0]__header</t>
         </is>
       </c>
       <c r="AK1" s="2" t="inlineStr">
         <is>
-          <t>sustainability_documents_wastePrevention[0]_content</t>
+          <t>sustainability__documents__wastePrevention[0]__content</t>
         </is>
       </c>
       <c r="AL1" s="2" t="inlineStr">
         <is>
-          <t>sustainability_documents_wastePrevention[0]_contentType</t>
+          <t>sustainability__documents__wastePrevention[0]__contentType</t>
         </is>
       </c>
       <c r="AM1" s="2" t="inlineStr">
         <is>
-          <t>sustainability_documents_wastePrevention[0]_header</t>
+          <t>sustainability__documents__wastePrevention[0]__header</t>
         </is>
       </c>
       <c r="AN1" s="2" t="inlineStr">
         <is>
-          <t>sustainability_documents_euTaxonomyDisclosureStatement[0]_content</t>
+          <t>sustainability__documents__euTaxonomyDisclosureStatement[0]__content</t>
         </is>
       </c>
       <c r="AO1" s="2" t="inlineStr">
         <is>
-          <t>sustainability_documents_euTaxonomyDisclosureStatement[0]_contentType</t>
+          <t>sustainability__documents__euTaxonomyDisclosureStatement[0]__contentType</t>
         </is>
       </c>
       <c r="AP1" s="2" t="inlineStr">
         <is>
-          <t>sustainability_documents_euTaxonomyDisclosureStatement[0]_header</t>
+          <t>sustainability__documents__euTaxonomyDisclosureStatement[0]__header</t>
         </is>
       </c>
       <c r="AQ1" s="2" t="inlineStr">
         <is>
-          <t>sustainability_documents_sustainabilityReport[0]_content</t>
+          <t>sustainability__documents__sustainabilityReport[0]__content</t>
         </is>
       </c>
       <c r="AR1" s="2" t="inlineStr">
         <is>
-          <t>sustainability_documents_sustainabilityReport[0]_contentType</t>
+          <t>sustainability__documents__sustainabilityReport[0]__contentType</t>
         </is>
       </c>
       <c r="AS1" s="2" t="inlineStr">
         <is>
-          <t>sustainability_documents_sustainabilityReport[0]_header</t>
+          <t>sustainability__documents__sustainabilityReport[0]__header</t>
         </is>
       </c>
       <c r="AT1" s="2" t="inlineStr">
         <is>
-          <t>sustainability_carbonFootprint[0]_value</t>
+          <t>sustainability__carbonFootprint[0]__value</t>
         </is>
       </c>
       <c r="AU1" s="2" t="inlineStr">
         <is>
-          <t>sustainability_carbonFootprint[0]_rulebook[0]_content</t>
+          <t>sustainability__carbonFootprint[0]__rulebook[0]__content</t>
         </is>
       </c>
       <c r="AV1" s="2" t="inlineStr">
         <is>
-          <t>sustainability_carbonFootprint[0]_rulebook[0]_contentType</t>
+          <t>sustainability__carbonFootprint[0]__rulebook[0]__contentType</t>
         </is>
       </c>
       <c r="AW1" s="2" t="inlineStr">
         <is>
-          <t>sustainability_carbonFootprint[0]_rulebook[0]_header</t>
+          <t>sustainability__carbonFootprint[0]__rulebook[0]__header</t>
         </is>
       </c>
       <c r="AX1" s="2" t="inlineStr">
         <is>
-          <t>sustainability_carbonFootprint[0]_lifecycle</t>
+          <t>sustainability__carbonFootprint[0]__lifecycle</t>
         </is>
       </c>
       <c r="AY1" s="2" t="inlineStr">
         <is>
-          <t>sustainability_carbonFootprint[0]_unit</t>
+          <t>sustainability__carbonFootprint[0]__unit</t>
         </is>
       </c>
       <c r="AZ1" s="2" t="inlineStr">
         <is>
-          <t>sustainability_carbonFootprint[0]_type</t>
+          <t>sustainability__carbonFootprint[0]__type</t>
         </is>
       </c>
       <c r="BA1" s="3" t="inlineStr">
         <is>
-          <t>sustainability_carbonFootprint[0]_performanceClass</t>
+          <t>sustainability__carbonFootprint[0]__performanceClass</t>
         </is>
       </c>
       <c r="BB1" s="2" t="inlineStr">
         <is>
-          <t>sustainability_carbonFootprint[0]_manufacturingPlant[0]_facility</t>
+          <t>sustainability__carbonFootprint[0]__manufacturingPlant[0]__facility</t>
         </is>
       </c>
       <c r="BC1" s="2" t="inlineStr">
         <is>
-          <t>sustainability_carbonFootprint[0]_declaration[0]_content</t>
+          <t>sustainability__carbonFootprint[0]__declaration[0]__content</t>
         </is>
       </c>
       <c r="BD1" s="2" t="inlineStr">
         <is>
-          <t>sustainability_carbonFootprint[0]_declaration[0]_contentType</t>
+          <t>sustainability__carbonFootprint[0]__declaration[0]__contentType</t>
         </is>
       </c>
       <c r="BE1" s="2" t="inlineStr">
         <is>
-          <t>sustainability_carbonFootprint[0]_declaration[0]_header</t>
+          <t>sustainability__carbonFootprint[0]__declaration[0]__header</t>
         </is>
       </c>
       <c r="BF1" s="2" t="inlineStr">
         <is>
-          <t>sustainability_status</t>
+          <t>sustainability__status</t>
         </is>
       </c>
       <c r="BG1" s="2" t="inlineStr">
         <is>
-          <t>materials_active_nickel_location</t>
+          <t>materials__active__nickel__location</t>
         </is>
       </c>
       <c r="BH1" s="2" t="inlineStr">
         <is>
-          <t>materials_active_nickel_recycled</t>
+          <t>materials__active__nickel__recycled</t>
         </is>
       </c>
       <c r="BI1" s="2" t="inlineStr">
         <is>
-          <t>materials_active_nickel_documentation[0]_content</t>
+          <t>materials__active__nickel__documentation[0]__content</t>
         </is>
       </c>
       <c r="BJ1" s="2" t="inlineStr">
         <is>
-          <t>materials_active_nickel_documentation[0]_contentType</t>
+          <t>materials__active__nickel__documentation[0]__contentType</t>
         </is>
       </c>
       <c r="BK1" s="2" t="inlineStr">
         <is>
-          <t>materials_active_nickel_documentation[0]_header</t>
+          <t>materials__active__nickel__documentation[0]__header</t>
         </is>
       </c>
       <c r="BL1" s="2" t="inlineStr">
         <is>
-          <t>materials_active_nickel_critical</t>
+          <t>materials__active__nickel__critical</t>
         </is>
       </c>
       <c r="BM1" s="2" t="inlineStr">
         <is>
-          <t>materials_active_lithium_location</t>
+          <t>materials__active__lithium__location</t>
         </is>
       </c>
       <c r="BN1" s="2" t="inlineStr">
         <is>
-          <t>materials_active_lithium_recycled</t>
+          <t>materials__active__lithium__recycled</t>
         </is>
       </c>
       <c r="BO1" s="2" t="inlineStr">
         <is>
-          <t>materials_active_lithium_documentation[0]_content</t>
+          <t>materials__active__lithium__documentation[0]__content</t>
         </is>
       </c>
       <c r="BP1" s="2" t="inlineStr">
         <is>
-          <t>materials_active_lithium_documentation[0]_contentType</t>
+          <t>materials__active__lithium__documentation[0]__contentType</t>
         </is>
       </c>
       <c r="BQ1" s="2" t="inlineStr">
         <is>
-          <t>materials_active_lithium_documentation[0]_header</t>
+          <t>materials__active__lithium__documentation[0]__header</t>
         </is>
       </c>
       <c r="BR1" s="2" t="inlineStr">
         <is>
-          <t>materials_active_lithium_critical</t>
+          <t>materials__active__lithium__critical</t>
         </is>
       </c>
       <c r="BS1" s="2" t="inlineStr">
         <is>
-          <t>materials_active_cobalt_location</t>
+          <t>materials__active__cobalt__location</t>
         </is>
       </c>
       <c r="BT1" s="2" t="inlineStr">
         <is>
-          <t>materials_active_cobalt_recycled</t>
+          <t>materials__active__cobalt__recycled</t>
         </is>
       </c>
       <c r="BU1" s="2" t="inlineStr">
         <is>
-          <t>materials_active_cobalt_documentation[0]_content</t>
+          <t>materials__active__cobalt__documentation[0]__content</t>
         </is>
       </c>
       <c r="BV1" s="2" t="inlineStr">
         <is>
-          <t>materials_active_cobalt_documentation[0]_contentType</t>
+          <t>materials__active__cobalt__documentation[0]__contentType</t>
         </is>
       </c>
       <c r="BW1" s="2" t="inlineStr">
         <is>
-          <t>materials_active_cobalt_documentation[0]_header</t>
+          <t>materials__active__cobalt__documentation[0]__header</t>
         </is>
       </c>
       <c r="BX1" s="2" t="inlineStr">
         <is>
-          <t>materials_active_cobalt_critical</t>
+          <t>materials__active__cobalt__critical</t>
         </is>
       </c>
       <c r="BY1" s="2" t="inlineStr">
         <is>
-          <t>materials_active_lead_impactOfSubstances[0]_content</t>
+          <t>materials__active__lead__impactOfSubstances[0]__content</t>
         </is>
       </c>
       <c r="BZ1" s="2" t="inlineStr">
         <is>
-          <t>materials_active_lead_impactOfSubstances[0]_contentType</t>
+          <t>materials__active__lead__impactOfSubstances[0]__contentType</t>
         </is>
       </c>
       <c r="CA1" s="2" t="inlineStr">
         <is>
-          <t>materials_active_lead_impactOfSubstances[0]_header</t>
+          <t>materials__active__lead__impactOfSubstances[0]__header</t>
         </is>
       </c>
       <c r="CB1" s="2" t="inlineStr">
         <is>
-          <t>materials_active_lead_critical</t>
+          <t>materials__active__lead__critical</t>
         </is>
       </c>
       <c r="CC1" s="2" t="inlineStr">
         <is>
-          <t>materials_active_lead_documentation[0]_content</t>
+          <t>materials__active__lead__documentation[0]__content</t>
         </is>
       </c>
       <c r="CD1" s="2" t="inlineStr">
         <is>
-          <t>materials_active_lead_documentation[0]_contentType</t>
+          <t>materials__active__lead__documentation[0]__contentType</t>
         </is>
       </c>
       <c r="CE1" s="2" t="inlineStr">
         <is>
-          <t>materials_active_lead_documentation[0]_header</t>
+          <t>materials__active__lead__documentation[0]__header</t>
         </is>
       </c>
       <c r="CF1" s="2" t="inlineStr">
         <is>
-          <t>materials_active_lead_recycled</t>
+          <t>materials__active__lead__recycled</t>
         </is>
       </c>
       <c r="CG1" s="2" t="inlineStr">
         <is>
-          <t>materials_active_lead_location</t>
+          <t>materials__active__lead__location</t>
         </is>
       </c>
       <c r="CH1" s="2" t="inlineStr">
         <is>
-          <t>materials_active_lead_concentration</t>
+          <t>materials__active__lead__concentration</t>
         </is>
       </c>
       <c r="CI1" s="2" t="inlineStr">
         <is>
-          <t>materials_active_lead_materialUnit</t>
+          <t>materials__active__lead__materialUnit</t>
         </is>
       </c>
       <c r="CJ1" s="2" t="inlineStr">
         <is>
-          <t>materials_active_other[0]_location</t>
+          <t>materials__active__other[0]__location</t>
         </is>
       </c>
       <c r="CK1" s="2" t="inlineStr">
         <is>
-          <t>materials_active_other[0]_recycled</t>
+          <t>materials__active__other[0]__recycled</t>
         </is>
       </c>
       <c r="CL1" s="2" t="inlineStr">
         <is>
-          <t>materials_active_other[0]_documentation[0]_content</t>
+          <t>materials__active__other[0]__documentation[0]__content</t>
         </is>
       </c>
       <c r="CM1" s="2" t="inlineStr">
         <is>
-          <t>materials_active_other[0]_documentation[0]_contentType</t>
+          <t>materials__active__other[0]__documentation[0]__contentType</t>
         </is>
       </c>
       <c r="CN1" s="2" t="inlineStr">
         <is>
-          <t>materials_active_other[0]_documentation[0]_header</t>
+          <t>materials__active__other[0]__documentation[0]__header</t>
         </is>
       </c>
       <c r="CO1" s="2" t="inlineStr">
         <is>
-          <t>materials_active_other[0]_critical</t>
+          <t>materials__active__other[0]__critical</t>
         </is>
       </c>
       <c r="CP1" s="2" t="inlineStr">
         <is>
-          <t>materials_active_other[0]_materialIdentification[0]_id</t>
+          <t>materials__active__other[0]__materialIdentification[0]__id</t>
         </is>
       </c>
       <c r="CQ1" s="2" t="inlineStr">
         <is>
-          <t>materials_active_other[0]_materialIdentification[0]_type</t>
+          <t>materials__active__other[0]__materialIdentification[0]__type</t>
         </is>
       </c>
       <c r="CR1" s="2" t="inlineStr">
         <is>
-          <t>materials_active_other[0]_materialIdentification[0]_name</t>
+          <t>materials__active__other[0]__materialIdentification[0]__name</t>
         </is>
       </c>
       <c r="CS1" s="2" t="inlineStr">
         <is>
-          <t>materials_hazardous_cadmium_impactOfSubstances[0]_content</t>
+          <t>materials__hazardous__cadmium__impactOfSubstances[0]__content</t>
         </is>
       </c>
       <c r="CT1" s="2" t="inlineStr">
         <is>
-          <t>materials_hazardous_cadmium_impactOfSubstances[0]_contentType</t>
+          <t>materials__hazardous__cadmium__impactOfSubstances[0]__contentType</t>
         </is>
       </c>
       <c r="CU1" s="2" t="inlineStr">
         <is>
-          <t>materials_hazardous_cadmium_impactOfSubstances[0]_header</t>
+          <t>materials__hazardous__cadmium__impactOfSubstances[0]__header</t>
         </is>
       </c>
       <c r="CV1" s="2" t="inlineStr">
         <is>
-          <t>materials_hazardous_cadmium_concentration</t>
+          <t>materials__hazardous__cadmium__concentration</t>
         </is>
       </c>
       <c r="CW1" s="2" t="inlineStr">
         <is>
-          <t>materials_hazardous_cadmium_location</t>
+          <t>materials__hazardous__cadmium__location</t>
         </is>
       </c>
       <c r="CX1" s="2" t="inlineStr">
         <is>
-          <t>materials_hazardous_cadmium_materialUnit</t>
+          <t>materials__hazardous__cadmium__materialUnit</t>
         </is>
       </c>
       <c r="CY1" s="2" t="inlineStr">
         <is>
-          <t>materials_hazardous_cadmium_critical</t>
+          <t>materials__hazardous__cadmium__critical</t>
         </is>
       </c>
       <c r="CZ1" s="2" t="inlineStr">
         <is>
-          <t>materials_hazardous_cadmium_documentation[0]_content</t>
+          <t>materials__hazardous__cadmium__documentation[0]__content</t>
         </is>
       </c>
       <c r="DA1" s="2" t="inlineStr">
         <is>
-          <t>materials_hazardous_cadmium_documentation[0]_contentType</t>
+          <t>materials__hazardous__cadmium__documentation[0]__contentType</t>
         </is>
       </c>
       <c r="DB1" s="2" t="inlineStr">
         <is>
-          <t>materials_hazardous_cadmium_documentation[0]_header</t>
+          <t>materials__hazardous__cadmium__documentation[0]__header</t>
         </is>
       </c>
       <c r="DC1" s="2" t="inlineStr">
         <is>
-          <t>materials_hazardous_mercury_impactOfSubstances[0]_content</t>
+          <t>materials__hazardous__mercury__impactOfSubstances[0]__content</t>
         </is>
       </c>
       <c r="DD1" s="2" t="inlineStr">
         <is>
-          <t>materials_hazardous_mercury_impactOfSubstances[0]_contentType</t>
+          <t>materials__hazardous__mercury__impactOfSubstances[0]__contentType</t>
         </is>
       </c>
       <c r="DE1" s="2" t="inlineStr">
         <is>
-          <t>materials_hazardous_mercury_impactOfSubstances[0]_header</t>
+          <t>materials__hazardous__mercury__impactOfSubstances[0]__header</t>
         </is>
       </c>
       <c r="DF1" s="2" t="inlineStr">
         <is>
-          <t>materials_hazardous_mercury_concentration</t>
+          <t>materials__hazardous__mercury__concentration</t>
         </is>
       </c>
       <c r="DG1" s="2" t="inlineStr">
         <is>
-          <t>materials_hazardous_mercury_location</t>
+          <t>materials__hazardous__mercury__location</t>
         </is>
       </c>
       <c r="DH1" s="2" t="inlineStr">
         <is>
-          <t>materials_hazardous_mercury_materialUnit</t>
+          <t>materials__hazardous__mercury__materialUnit</t>
         </is>
       </c>
       <c r="DI1" s="2" t="inlineStr">
         <is>
-          <t>materials_hazardous_mercury_critical</t>
+          <t>materials__hazardous__mercury__critical</t>
         </is>
       </c>
       <c r="DJ1" s="2" t="inlineStr">
         <is>
-          <t>materials_hazardous_mercury_documentation[0]_content</t>
+          <t>materials__hazardous__mercury__documentation[0]__content</t>
         </is>
       </c>
       <c r="DK1" s="2" t="inlineStr">
         <is>
-          <t>materials_hazardous_mercury_documentation[0]_contentType</t>
+          <t>materials__hazardous__mercury__documentation[0]__contentType</t>
         </is>
       </c>
       <c r="DL1" s="2" t="inlineStr">
         <is>
-          <t>materials_hazardous_mercury_documentation[0]_header</t>
+          <t>materials__hazardous__mercury__documentation[0]__header</t>
         </is>
       </c>
       <c r="DM1" s="2" t="inlineStr">
         <is>
-          <t>materials_hazardous_other[0]_impactOfSubstances[0]_content</t>
+          <t>materials__hazardous__other[0]__impactOfSubstances[0]__content</t>
         </is>
       </c>
       <c r="DN1" s="2" t="inlineStr">
         <is>
-          <t>materials_hazardous_other[0]_impactOfSubstances[0]_contentType</t>
+          <t>materials__hazardous__other[0]__impactOfSubstances[0]__contentType</t>
         </is>
       </c>
       <c r="DO1" s="2" t="inlineStr">
         <is>
-          <t>materials_hazardous_other[0]_impactOfSubstances[0]_header</t>
+          <t>materials__hazardous__other[0]__impactOfSubstances[0]__header</t>
         </is>
       </c>
       <c r="DP1" s="2" t="inlineStr">
         <is>
-          <t>materials_hazardous_other[0]_materialUnit</t>
+          <t>materials__hazardous__other[0]__materialUnit</t>
         </is>
       </c>
       <c r="DQ1" s="2" t="inlineStr">
         <is>
-          <t>materials_hazardous_other[0]_concentration</t>
+          <t>materials__hazardous__other[0]__concentration</t>
         </is>
       </c>
       <c r="DR1" s="2" t="inlineStr">
         <is>
-          <t>materials_hazardous_other[0]_materialIdentification[0]_id</t>
+          <t>materials__hazardous__other[0]__materialIdentification[0]__id</t>
         </is>
       </c>
       <c r="DS1" s="2" t="inlineStr">
         <is>
-          <t>materials_hazardous_other[0]_materialIdentification[0]_type</t>
+          <t>materials__hazardous__other[0]__materialIdentification[0]__type</t>
         </is>
       </c>
       <c r="DT1" s="2" t="inlineStr">
         <is>
-          <t>materials_hazardous_other[0]_materialIdentification[0]_name</t>
+          <t>materials__hazardous__other[0]__materialIdentification[0]__name</t>
         </is>
       </c>
       <c r="DU1" s="2" t="inlineStr">
         <is>
-          <t>materials_hazardous_other[0]_documentation[0]_content</t>
+          <t>materials__hazardous__other[0]__documentation[0]__content</t>
         </is>
       </c>
       <c r="DV1" s="2" t="inlineStr">
         <is>
-          <t>materials_hazardous_other[0]_documentation[0]_contentType</t>
+          <t>materials__hazardous__other[0]__documentation[0]__contentType</t>
         </is>
       </c>
       <c r="DW1" s="2" t="inlineStr">
         <is>
-          <t>materials_hazardous_other[0]_documentation[0]_header</t>
+          <t>materials__hazardous__other[0]__documentation[0]__header</t>
         </is>
       </c>
       <c r="DX1" s="2" t="inlineStr">
         <is>
-          <t>materials_hazardous_other[0]_critical</t>
+          <t>materials__hazardous__other[0]__critical</t>
         </is>
       </c>
       <c r="DY1" s="2" t="inlineStr">
         <is>
-          <t>materials_hazardous_other[0]_location</t>
+          <t>materials__hazardous__other[0]__location</t>
         </is>
       </c>
       <c r="DZ1" s="2" t="inlineStr">
         <is>
-          <t>materials_hazardous_lead_impactOfSubstances[0]_content</t>
+          <t>materials__hazardous__lead__impactOfSubstances[0]__content</t>
         </is>
       </c>
       <c r="EA1" s="2" t="inlineStr">
         <is>
-          <t>materials_hazardous_lead_impactOfSubstances[0]_contentType</t>
+          <t>materials__hazardous__lead__impactOfSubstances[0]__contentType</t>
         </is>
       </c>
       <c r="EB1" s="2" t="inlineStr">
         <is>
-          <t>materials_hazardous_lead_impactOfSubstances[0]_header</t>
+          <t>materials__hazardous__lead__impactOfSubstances[0]__header</t>
         </is>
       </c>
       <c r="EC1" s="2" t="inlineStr">
         <is>
-          <t>materials_hazardous_lead_critical</t>
+          <t>materials__hazardous__lead__critical</t>
         </is>
       </c>
       <c r="ED1" s="2" t="inlineStr">
         <is>
-          <t>materials_hazardous_lead_documentation[0]_content</t>
+          <t>materials__hazardous__lead__documentation[0]__content</t>
         </is>
       </c>
       <c r="EE1" s="2" t="inlineStr">
         <is>
-          <t>materials_hazardous_lead_documentation[0]_contentType</t>
+          <t>materials__hazardous__lead__documentation[0]__contentType</t>
         </is>
       </c>
       <c r="EF1" s="2" t="inlineStr">
         <is>
-          <t>materials_hazardous_lead_documentation[0]_header</t>
+          <t>materials__hazardous__lead__documentation[0]__header</t>
         </is>
       </c>
       <c r="EG1" s="2" t="inlineStr">
         <is>
-          <t>materials_hazardous_lead_recycled</t>
+          <t>materials__hazardous__lead__recycled</t>
         </is>
       </c>
       <c r="EH1" s="2" t="inlineStr">
         <is>
-          <t>materials_hazardous_lead_location</t>
+          <t>materials__hazardous__lead__location</t>
         </is>
       </c>
       <c r="EI1" s="2" t="inlineStr">
         <is>
-          <t>materials_hazardous_lead_concentration</t>
+          <t>materials__hazardous__lead__concentration</t>
         </is>
       </c>
       <c r="EJ1" s="2" t="inlineStr">
         <is>
-          <t>materials_hazardous_lead_materialUnit</t>
+          <t>materials__hazardous__lead__materialUnit</t>
         </is>
       </c>
       <c r="EK1" s="2" t="inlineStr">
         <is>
-          <t>materials_composition[0]_id[0]_id</t>
+          <t>materials__composition[0]__id[0]__id</t>
         </is>
       </c>
       <c r="EL1" s="2" t="inlineStr">
         <is>
-          <t>materials_composition[0]_id[0]_type</t>
+          <t>materials__composition[0]__id[0]__type</t>
         </is>
       </c>
       <c r="EM1" s="2" t="inlineStr">
         <is>
-          <t>materials_composition[0]_id[0]_name</t>
+          <t>materials__composition[0]__id[0]__name</t>
         </is>
       </c>
       <c r="EN1" s="2" t="inlineStr">
         <is>
-          <t>materials_composition[0]_concentration</t>
+          <t>materials__composition[0]__concentration</t>
         </is>
       </c>
       <c r="EO1" s="2" t="inlineStr">
         <is>
-          <t>materials_composition[0]_unit</t>
+          <t>materials__composition[0]__unit</t>
         </is>
       </c>
       <c r="EP1" s="2" t="inlineStr">
         <is>
-          <t>materials_composition[0]_critical</t>
+          <t>materials__composition[0]__critical</t>
         </is>
       </c>
       <c r="EQ1" s="2" t="inlineStr">
         <is>
-          <t>materials_composition[0]_documentation[0]_content</t>
+          <t>materials__composition[0]__documentation[0]__content</t>
         </is>
       </c>
       <c r="ER1" s="2" t="inlineStr">
         <is>
-          <t>materials_composition[0]_documentation[0]_contentType</t>
+          <t>materials__composition[0]__documentation[0]__contentType</t>
         </is>
       </c>
       <c r="ES1" s="2" t="inlineStr">
         <is>
-          <t>materials_composition[0]_documentation[0]_header</t>
+          <t>materials__composition[0]__documentation[0]__header</t>
         </is>
       </c>
       <c r="ET1" s="2" t="inlineStr">
         <is>
-          <t>materials_composition[0]_recycled</t>
+          <t>materials__composition[0]__recycled</t>
         </is>
       </c>
       <c r="EU1" s="2" t="inlineStr">
         <is>
-          <t>materials_composition[0]_location</t>
+          <t>materials__composition[0]__location</t>
         </is>
       </c>
       <c r="EV1" s="2" t="inlineStr">
         <is>
-          <t>materials_composition[0]_renewable</t>
+          <t>materials__composition[0]__renewable</t>
         </is>
       </c>
       <c r="EW1" s="2" t="inlineStr">
         <is>
-          <t>performance_rated_voltage_min</t>
+          <t>performance__rated__voltage__min</t>
         </is>
       </c>
       <c r="EX1" s="2" t="inlineStr">
         <is>
-          <t>performance_rated_voltage_max</t>
+          <t>performance__rated__voltage__max</t>
         </is>
       </c>
       <c r="EY1" s="2" t="inlineStr">
         <is>
-          <t>performance_rated_voltage_nominal</t>
+          <t>performance__rated__voltage__nominal</t>
         </is>
       </c>
       <c r="EZ1" s="3" t="inlineStr">
         <is>
-          <t>performance_rated_voltage_temperature</t>
+          <t>performance__rated__voltage__temperature</t>
         </is>
       </c>
       <c r="FA1" s="2" t="inlineStr">
         <is>
-          <t>performance_rated_roundTripEfficiency_depthOfDischarge</t>
+          <t>performance__rated__roundTripEfficiency__depthOfDischarge</t>
         </is>
       </c>
       <c r="FB1" s="2" t="inlineStr">
         <is>
-          <t>performance_rated_roundTripEfficiency_initial</t>
+          <t>performance__rated__roundTripEfficiency__initial</t>
         </is>
       </c>
       <c r="FC1" s="2" t="inlineStr">
         <is>
-          <t>performance_rated_roundTripEfficiency_50PercentLife</t>
+          <t>performance__rated__roundTripEfficiency__50PercentLife</t>
         </is>
       </c>
       <c r="FD1" s="3" t="inlineStr">
         <is>
-          <t>performance_rated_roundTripEfficiency_temperature</t>
+          <t>performance__rated__roundTripEfficiency__temperature</t>
         </is>
       </c>
       <c r="FE1" s="2" t="inlineStr">
         <is>
-          <t>performance_rated_energy_value</t>
+          <t>performance__rated__energy__value</t>
         </is>
       </c>
       <c r="FF1" s="3" t="inlineStr">
         <is>
-          <t>performance_rated_energy_temperature</t>
+          <t>performance__rated__energy__temperature</t>
         </is>
       </c>
       <c r="FG1" s="2" t="inlineStr">
         <is>
-          <t>performance_rated_resistance_cell</t>
+          <t>performance__rated__resistance__cell</t>
         </is>
       </c>
       <c r="FH1" s="3" t="inlineStr">
         <is>
-          <t>performance_rated_resistance_module</t>
+          <t>performance__rated__resistance__module</t>
         </is>
       </c>
       <c r="FI1" s="2" t="inlineStr">
         <is>
-          <t>performance_rated_resistance_pack</t>
+          <t>performance__rated__resistance__pack</t>
         </is>
       </c>
       <c r="FJ1" s="3" t="inlineStr">
         <is>
-          <t>performance_rated_resistance_temperature</t>
+          <t>performance__rated__resistance__temperature</t>
         </is>
       </c>
       <c r="FK1" s="2" t="inlineStr">
         <is>
-          <t>performance_rated_power_value</t>
+          <t>performance__rated__power__value</t>
         </is>
       </c>
       <c r="FL1" s="2" t="inlineStr">
         <is>
-          <t>performance_rated_power_at20SoC</t>
+          <t>performance__rated__power__at20SoC</t>
         </is>
       </c>
       <c r="FM1" s="2" t="inlineStr">
         <is>
-          <t>performance_rated_power_at80SoC</t>
+          <t>performance__rated__power__at80SoC</t>
         </is>
       </c>
       <c r="FN1" s="3" t="inlineStr">
         <is>
-          <t>performance_rated_power_temperature</t>
+          <t>performance__rated__power__temperature</t>
         </is>
       </c>
       <c r="FO1" s="2" t="inlineStr">
         <is>
-          <t>performance_rated_capacity_value</t>
+          <t>performance__rated__capacity__value</t>
         </is>
       </c>
       <c r="FP1" s="2" t="inlineStr">
         <is>
-          <t>performance_rated_capacity_thresholdExhaustion</t>
+          <t>performance__rated__capacity__thresholdExhaustion</t>
         </is>
       </c>
       <c r="FQ1" s="3" t="inlineStr">
         <is>
-          <t>performance_rated_capacity_temperature</t>
+          <t>performance__rated__capacity__temperature</t>
         </is>
       </c>
       <c r="FR1" s="2" t="inlineStr">
         <is>
-          <t>performance_rated_performanceDocument[0]_content</t>
+          <t>performance__rated__performanceDocument[0]__content</t>
         </is>
       </c>
       <c r="FS1" s="2" t="inlineStr">
         <is>
-          <t>performance_rated_performanceDocument[0]_contentType</t>
+          <t>performance__rated__performanceDocument[0]__contentType</t>
         </is>
       </c>
       <c r="FT1" s="2" t="inlineStr">
         <is>
-          <t>performance_rated_performanceDocument[0]_header</t>
+          <t>performance__rated__performanceDocument[0]__header</t>
         </is>
       </c>
       <c r="FU1" s="2" t="inlineStr">
         <is>
-          <t>performance_rated_temperature_lower</t>
+          <t>performance__rated__temperature__lower</t>
         </is>
       </c>
       <c r="FV1" s="2" t="inlineStr">
         <is>
-          <t>performance_rated_temperature_upper</t>
+          <t>performance__rated__temperature__upper</t>
         </is>
       </c>
       <c r="FW1" s="2" t="inlineStr">
         <is>
-          <t>performance_rated_selfDischargingRate</t>
+          <t>performance__rated__selfDischargingRate</t>
         </is>
       </c>
       <c r="FX1" s="2" t="inlineStr">
         <is>
-          <t>performance_rated_testReport[0]_content</t>
+          <t>performance__rated__testReport[0]__content</t>
         </is>
       </c>
       <c r="FY1" s="2" t="inlineStr">
         <is>
-          <t>performance_rated_testReport[0]_contentType</t>
+          <t>performance__rated__testReport[0]__contentType</t>
         </is>
       </c>
       <c r="FZ1" s="2" t="inlineStr">
         <is>
-          <t>performance_rated_testReport[0]_header</t>
+          <t>performance__rated__testReport[0]__header</t>
         </is>
       </c>
       <c r="GA1" s="2" t="inlineStr">
         <is>
-          <t>performance_rated_lifetime_expectedYears</t>
+          <t>performance__rated__lifetime__expectedYears</t>
         </is>
       </c>
       <c r="GB1" s="2" t="inlineStr">
         <is>
-          <t>performance_rated_lifetime_report[0]_content</t>
+          <t>performance__rated__lifetime__report[0]__content</t>
         </is>
       </c>
       <c r="GC1" s="2" t="inlineStr">
         <is>
-          <t>performance_rated_lifetime_report[0]_contentType</t>
+          <t>performance__rated__lifetime__report[0]__contentType</t>
         </is>
       </c>
       <c r="GD1" s="2" t="inlineStr">
         <is>
-          <t>performance_rated_lifetime_report[0]_header</t>
+          <t>performance__rated__lifetime__report[0]__header</t>
         </is>
       </c>
       <c r="GE1" s="2" t="inlineStr">
         <is>
-          <t>performance_rated_lifetime_cycleLifeTesting_temperature</t>
+          <t>performance__rated__lifetime__cycleLifeTesting__temperature</t>
         </is>
       </c>
       <c r="GF1" s="2" t="inlineStr">
         <is>
-          <t>performance_rated_lifetime_cycleLifeTesting_cycles</t>
+          <t>performance__rated__lifetime__cycleLifeTesting__cycles</t>
         </is>
       </c>
       <c r="GG1" s="2" t="inlineStr">
         <is>
-          <t>performance_rated_lifetime_cycleLifeTesting_depthOfDischarge</t>
+          <t>performance__rated__lifetime__cycleLifeTesting__depthOfDischarge</t>
         </is>
       </c>
       <c r="GH1" s="2" t="inlineStr">
         <is>
-          <t>performance_rated_lifetime_cycleLifeTesting_appliedChargeRate</t>
+          <t>performance__rated__lifetime__cycleLifeTesting__appliedChargeRate</t>
         </is>
       </c>
       <c r="GI1" s="2" t="inlineStr">
         <is>
-          <t>performance_rated_lifetime_cycleLifeTesting_appliedDischargeRate</t>
+          <t>performance__rated__lifetime__cycleLifeTesting__appliedDischargeRate</t>
         </is>
       </c>
       <c r="GJ1" s="2" t="inlineStr">
         <is>
-          <t>performance_dynamic_stateOfCharge_value</t>
+          <t>performance__dynamic__stateOfCharge__value</t>
         </is>
       </c>
       <c r="GK1" s="2" t="inlineStr">
         <is>
-          <t>performance_dynamic_stateOfCharge_time</t>
+          <t>performance__dynamic__stateOfCharge__time</t>
         </is>
       </c>
       <c r="GL1" s="2" t="inlineStr">
         <is>
-          <t>performance_dynamic_fullCycles_time</t>
+          <t>performance__dynamic__fullCycles__time</t>
         </is>
       </c>
       <c r="GM1" s="2" t="inlineStr">
         <is>
-          <t>performance_dynamic_fullCycles_value</t>
+          <t>performance__dynamic__fullCycles__value</t>
         </is>
       </c>
       <c r="GN1" s="2" t="inlineStr">
         <is>
-          <t>performance_dynamic_performanceDocument[0]_content</t>
+          <t>performance__dynamic__performanceDocument[0]__content</t>
         </is>
       </c>
       <c r="GO1" s="2" t="inlineStr">
         <is>
-          <t>performance_dynamic_performanceDocument[0]_contentType</t>
+          <t>performance__dynamic__performanceDocument[0]__contentType</t>
         </is>
       </c>
       <c r="GP1" s="2" t="inlineStr">
         <is>
-          <t>performance_dynamic_performanceDocument[0]_header</t>
+          <t>performance__dynamic__performanceDocument[0]__header</t>
         </is>
       </c>
       <c r="GQ1" s="2" t="inlineStr">
         <is>
-          <t>performance_dynamic_selfDischargingRate</t>
+          <t>performance__dynamic__selfDischargingRate</t>
         </is>
       </c>
       <c r="GR1" s="2" t="inlineStr">
         <is>
-          <t>performance_dynamic_power_fade_value</t>
+          <t>performance__dynamic__power__fade__value</t>
         </is>
       </c>
       <c r="GS1" s="2" t="inlineStr">
         <is>
-          <t>performance_dynamic_power_fade_time</t>
+          <t>performance__dynamic__power__fade__time</t>
         </is>
       </c>
       <c r="GT1" s="2" t="inlineStr">
         <is>
-          <t>performance_dynamic_power_remaining_time</t>
+          <t>performance__dynamic__power__remaining__time</t>
         </is>
       </c>
       <c r="GU1" s="2" t="inlineStr">
         <is>
-          <t>performance_dynamic_power_remaining_value</t>
+          <t>performance__dynamic__power__remaining__value</t>
         </is>
       </c>
       <c r="GV1" s="2" t="inlineStr">
         <is>
-          <t>performance_dynamic_capacity_fade_value</t>
+          <t>performance__dynamic__capacity__fade__value</t>
         </is>
       </c>
       <c r="GW1" s="2" t="inlineStr">
         <is>
-          <t>performance_dynamic_capacity_fade_time</t>
+          <t>performance__dynamic__capacity__fade__time</t>
         </is>
       </c>
       <c r="GX1" s="2" t="inlineStr">
         <is>
-          <t>performance_dynamic_capacity_throughput_time</t>
+          <t>performance__dynamic__capacity__throughput__time</t>
         </is>
       </c>
       <c r="GY1" s="2" t="inlineStr">
         <is>
-          <t>performance_dynamic_capacity_throughput_value</t>
+          <t>performance__dynamic__capacity__throughput__value</t>
         </is>
       </c>
       <c r="GZ1" s="2" t="inlineStr">
         <is>
-          <t>performance_dynamic_capacity_capacity_time</t>
+          <t>performance__dynamic__capacity__capacity__time</t>
         </is>
       </c>
       <c r="HA1" s="2" t="inlineStr">
         <is>
-          <t>performance_dynamic_capacity_capacity_value</t>
+          <t>performance__dynamic__capacity__capacity__value</t>
         </is>
       </c>
       <c r="HB1" s="2" t="inlineStr">
         <is>
-          <t>performance_dynamic_roundTripEfficiency_fade_value</t>
+          <t>performance__dynamic__roundTripEfficiency__fade__value</t>
         </is>
       </c>
       <c r="HC1" s="2" t="inlineStr">
         <is>
-          <t>performance_dynamic_roundTripEfficiency_fade_time</t>
+          <t>performance__dynamic__roundTripEfficiency__fade__time</t>
         </is>
       </c>
       <c r="HD1" s="2" t="inlineStr">
         <is>
-          <t>performance_dynamic_roundTripEfficiency_remaining_value</t>
+          <t>performance__dynamic__roundTripEfficiency__remaining__value</t>
         </is>
       </c>
       <c r="HE1" s="2" t="inlineStr">
         <is>
-          <t>performance_dynamic_roundTripEfficiency_remaining_time</t>
+          <t>performance__dynamic__roundTripEfficiency__remaining__time</t>
         </is>
       </c>
       <c r="HF1" s="2" t="inlineStr">
         <is>
-          <t>performance_dynamic_resistance_increase_pack_value</t>
+          <t>performance__dynamic__resistance__increase__pack__value</t>
         </is>
       </c>
       <c r="HG1" s="2" t="inlineStr">
         <is>
-          <t>performance_dynamic_resistance_increase_pack_time</t>
+          <t>performance__dynamic__resistance__increase__pack__time</t>
         </is>
       </c>
       <c r="HH1" s="2" t="inlineStr">
         <is>
-          <t>performance_dynamic_resistance_increase_module_value</t>
+          <t>performance__dynamic__resistance__increase__module__value</t>
         </is>
       </c>
       <c r="HI1" s="2" t="inlineStr">
         <is>
-          <t>performance_dynamic_resistance_increase_module_time</t>
+          <t>performance__dynamic__resistance__increase__module__time</t>
         </is>
       </c>
       <c r="HJ1" s="2" t="inlineStr">
         <is>
-          <t>performance_dynamic_resistance_increase_cell_value</t>
+          <t>performance__dynamic__resistance__increase__cell__value</t>
         </is>
       </c>
       <c r="HK1" s="2" t="inlineStr">
         <is>
-          <t>performance_dynamic_resistance_increase_cell_time</t>
+          <t>performance__dynamic__resistance__increase__cell__time</t>
         </is>
       </c>
       <c r="HL1" s="2" t="inlineStr">
         <is>
-          <t>performance_dynamic_resistance_remaining_pack_time</t>
+          <t>performance__dynamic__resistance__remaining__pack__time</t>
         </is>
       </c>
       <c r="HM1" s="2" t="inlineStr">
         <is>
-          <t>performance_dynamic_resistance_remaining_pack_value</t>
+          <t>performance__dynamic__resistance__remaining__pack__value</t>
         </is>
       </c>
       <c r="HN1" s="2" t="inlineStr">
         <is>
-          <t>performance_dynamic_resistance_remaining_module_time</t>
+          <t>performance__dynamic__resistance__remaining__module__time</t>
         </is>
       </c>
       <c r="HO1" s="2" t="inlineStr">
         <is>
-          <t>performance_dynamic_resistance_remaining_module_value</t>
+          <t>performance__dynamic__resistance__remaining__module__value</t>
         </is>
       </c>
       <c r="HP1" s="2" t="inlineStr">
         <is>
-          <t>performance_dynamic_resistance_remaining_cell_time</t>
+          <t>performance__dynamic__resistance__remaining__cell__time</t>
         </is>
       </c>
       <c r="HQ1" s="2" t="inlineStr">
         <is>
-          <t>performance_dynamic_resistance_remaining_cell_value</t>
+          <t>performance__dynamic__resistance__remaining__cell__value</t>
         </is>
       </c>
       <c r="HR1" s="2" t="inlineStr">
         <is>
-          <t>performance_dynamic_energy_soce_value</t>
+          <t>performance__dynamic__energy__soce__value</t>
         </is>
       </c>
       <c r="HS1" s="2" t="inlineStr">
         <is>
-          <t>performance_dynamic_energy_soce_time</t>
+          <t>performance__dynamic__energy__soce__time</t>
         </is>
       </c>
       <c r="HT1" s="2" t="inlineStr">
         <is>
-          <t>performance_dynamic_energy_remaining_time</t>
+          <t>performance__dynamic__energy__remaining__time</t>
         </is>
       </c>
       <c r="HU1" s="2" t="inlineStr">
         <is>
-          <t>performance_dynamic_energy_remaining_value</t>
+          <t>performance__dynamic__energy__remaining__value</t>
         </is>
       </c>
       <c r="HV1" s="2" t="inlineStr">
         <is>
-          <t>performance_dynamic_energy_throughput_time</t>
+          <t>performance__dynamic__energy__throughput__time</t>
         </is>
       </c>
       <c r="HW1" s="2" t="inlineStr">
         <is>
-          <t>performance_dynamic_energy_throughput_value</t>
+          <t>performance__dynamic__energy__throughput__value</t>
         </is>
       </c>
       <c r="HX1" s="2" t="inlineStr">
         <is>
-          <t>performance_dynamic_negativeEvents[0]_content</t>
+          <t>performance__dynamic__negativeEvents[0]__content</t>
         </is>
       </c>
       <c r="HY1" s="2" t="inlineStr">
         <is>
-          <t>performance_dynamic_negativeEvents[0]_contentType</t>
+          <t>performance__dynamic__negativeEvents[0]__contentType</t>
         </is>
       </c>
       <c r="HZ1" s="2" t="inlineStr">
         <is>
-          <t>performance_dynamic_negativeEvents[0]_header</t>
+          <t>performance__dynamic__negativeEvents[0]__header</t>
         </is>
       </c>
       <c r="IA1" s="2" t="inlineStr">
         <is>
-          <t>performance_dynamic_operatingEnvironment[0]_content</t>
+          <t>performance__dynamic__operatingEnvironment[0]__content</t>
         </is>
       </c>
       <c r="IB1" s="2" t="inlineStr">
         <is>
-          <t>performance_dynamic_operatingEnvironment[0]_contentType</t>
+          <t>performance__dynamic__operatingEnvironment[0]__contentType</t>
         </is>
       </c>
       <c r="IC1" s="2" t="inlineStr">
         <is>
-          <t>performance_dynamic_operatingEnvironment[0]_header</t>
+          <t>performance__dynamic__operatingEnvironment[0]__header</t>
         </is>
       </c>
       <c r="ID1" s="3" t="inlineStr">
         <is>
-          <t>conformity_declarationOfConformityId</t>
+          <t>conformity__declarationOfConformityId</t>
         </is>
       </c>
       <c r="IE1" s="2" t="inlineStr">
         <is>
-          <t>conformity_declarationOfConformity[0]_content</t>
+          <t>conformity__declarationOfConformity[0]__content</t>
         </is>
       </c>
       <c r="IF1" s="2" t="inlineStr">
         <is>
-          <t>conformity_declarationOfConformity[0]_contentType</t>
+          <t>conformity__declarationOfConformity[0]__contentType</t>
         </is>
       </c>
       <c r="IG1" s="2" t="inlineStr">
         <is>
-          <t>conformity_declarationOfConformity[0]_header</t>
+          <t>conformity__declarationOfConformity[0]__header</t>
         </is>
       </c>
       <c r="IH1" s="2" t="inlineStr">
         <is>
-          <t>conformity_resultOfTestReport[0]_content</t>
+          <t>conformity__resultOfTestReport[0]__content</t>
         </is>
       </c>
       <c r="II1" s="2" t="inlineStr">
         <is>
-          <t>conformity_resultOfTestReport[0]_contentType</t>
+          <t>conformity__resultOfTestReport[0]__contentType</t>
         </is>
       </c>
       <c r="IJ1" s="2" t="inlineStr">
         <is>
-          <t>conformity_resultOfTestReport[0]_header</t>
+          <t>conformity__resultOfTestReport[0]__header</t>
         </is>
       </c>
       <c r="IK1" s="2" t="inlineStr">
         <is>
-          <t>conformity_thirdPartyAssurance[0]_content</t>
+          <t>conformity__thirdPartyAssurance[0]__content</t>
         </is>
       </c>
       <c r="IL1" s="2" t="inlineStr">
         <is>
-          <t>conformity_thirdPartyAssurance[0]_contentType</t>
+          <t>conformity__thirdPartyAssurance[0]__contentType</t>
         </is>
       </c>
       <c r="IM1" s="2" t="inlineStr">
         <is>
-          <t>conformity_thirdPartyAssurance[0]_header</t>
+          <t>conformity__thirdPartyAssurance[0]__header</t>
         </is>
       </c>
       <c r="IN1" s="2" t="inlineStr">
         <is>
-          <t>conformity_dueDiligencePolicy[0]_content</t>
+          <t>conformity__dueDiligencePolicy[0]__content</t>
         </is>
       </c>
       <c r="IO1" s="2" t="inlineStr">
         <is>
-          <t>conformity_dueDiligencePolicy[0]_contentType</t>
+          <t>conformity__dueDiligencePolicy[0]__contentType</t>
         </is>
       </c>
       <c r="IP1" s="2" t="inlineStr">
         <is>
-          <t>conformity_dueDiligencePolicy[0]_header</t>
+          <t>conformity__dueDiligencePolicy[0]__header</t>
         </is>
       </c>
       <c r="IQ1" s="2" t="inlineStr">
         <is>
-          <t>safety_usableExtinguishAgent[0]_document[0]_content</t>
+          <t>safety__usableExtinguishAgent[0]__document[0]__content</t>
         </is>
       </c>
       <c r="IR1" s="2" t="inlineStr">
         <is>
-          <t>safety_usableExtinguishAgent[0]_document[0]_contentType</t>
+          <t>safety__usableExtinguishAgent[0]__document[0]__contentType</t>
         </is>
       </c>
       <c r="IS1" s="2" t="inlineStr">
         <is>
-          <t>safety_usableExtinguishAgent[0]_document[0]_header</t>
+          <t>safety__usableExtinguishAgent[0]__document[0]__header</t>
         </is>
       </c>
       <c r="IT1" s="2" t="inlineStr">
         <is>
-          <t>safety_usableExtinguishAgent[0]_media</t>
+          <t>safety__usableExtinguishAgent[0]__media</t>
         </is>
       </c>
       <c r="IU1" s="2" t="inlineStr">
         <is>
-          <t>safety_usableExtinguishAgent[0]_fireClass</t>
+          <t>safety__usableExtinguishAgent[0]__fireClass</t>
         </is>
       </c>
       <c r="IV1" s="2" t="inlineStr">
         <is>
-          <t>safety_safetyMeasures[0]_content</t>
+          <t>safety__safetyMeasures[0]__content</t>
         </is>
       </c>
       <c r="IW1" s="2" t="inlineStr">
         <is>
-          <t>safety_safetyMeasures[0]_contentType</t>
+          <t>safety__safetyMeasures[0]__contentType</t>
         </is>
       </c>
       <c r="IX1" s="2" t="inlineStr">
         <is>
-          <t>safety_safetyMeasures[0]_header</t>
+          <t>safety__safetyMeasures[0]__header</t>
         </is>
       </c>
       <c r="IY1" s="2" t="inlineStr">
         <is>
-          <t>safety_meaningOfLabels[0]_content</t>
+          <t>safety__meaningOfLabels[0]__content</t>
         </is>
       </c>
       <c r="IZ1" s="2" t="inlineStr">
         <is>
-          <t>safety_meaningOfLabels[0]_contentType</t>
+          <t>safety__meaningOfLabels[0]__contentType</t>
         </is>
       </c>
       <c r="JA1" s="2" t="inlineStr">
         <is>
-          <t>safety_meaningOfLabels[0]_header</t>
+          <t>safety__meaningOfLabels[0]__header</t>
         </is>
       </c>
       <c r="JB1" s="2" t="inlineStr">
         <is>
-          <t>safety_safeDischarging[0]_content</t>
+          <t>safety__safeDischarging[0]__content</t>
         </is>
       </c>
       <c r="JC1" s="2" t="inlineStr">
         <is>
-          <t>safety_safeDischarging[0]_contentType</t>
+          <t>safety__safeDischarging[0]__contentType</t>
         </is>
       </c>
       <c r="JD1" s="2" t="inlineStr">
         <is>
-          <t>safety_safeDischarging[0]_header</t>
+          <t>safety__safeDischarging[0]__header</t>
         </is>
       </c>
       <c r="JE1" s="2" t="inlineStr">
         <is>
-          <t>safety_dismantling[0]_content</t>
+          <t>safety__dismantling[0]__content</t>
         </is>
       </c>
       <c r="JF1" s="2" t="inlineStr">
         <is>
-          <t>safety_dismantling[0]_contentType</t>
+          <t>safety__dismantling[0]__contentType</t>
         </is>
       </c>
       <c r="JG1" s="2" t="inlineStr">
         <is>
-          <t>safety_dismantling[0]_header</t>
+          <t>safety__dismantling[0]__header</t>
         </is>
       </c>
       <c r="JH1" s="2" t="inlineStr">
         <is>
-          <t>safety_removalFromAppliance[0]_content</t>
+          <t>safety__removalFromAppliance[0]__content</t>
         </is>
       </c>
       <c r="JI1" s="2" t="inlineStr">
         <is>
-          <t>safety_removalFromAppliance[0]_contentType</t>
+          <t>safety__removalFromAppliance[0]__contentType</t>
         </is>
       </c>
       <c r="JJ1" s="2" t="inlineStr">
         <is>
-          <t>safety_removalFromAppliance[0]_header</t>
+          <t>safety__removalFromAppliance[0]__header</t>
         </is>
       </c>
       <c r="JK1" s="2" t="inlineStr">
         <is>
-          <t>sources[0]_content</t>
+          <t>sources[0]__content</t>
         </is>
       </c>
       <c r="JL1" s="2" t="inlineStr">
         <is>
-          <t>sources[0]_category</t>
+          <t>sources[0]__category</t>
         </is>
       </c>
       <c r="JM1" s="2" t="inlineStr">
         <is>
-          <t>sources[0]_type</t>
+          <t>sources[0]__type</t>
         </is>
       </c>
       <c r="JN1" s="2" t="inlineStr">
         <is>
-          <t>sources[0]_header</t>
+          <t>sources[0]__header</t>
         </is>
       </c>
       <c r="JO1" s="2" t="inlineStr">
         <is>
-          <t>metadata_version</t>
+          <t>metadata__version</t>
         </is>
       </c>
       <c r="JP1" s="3" t="inlineStr">
         <is>
-          <t>metadata_status</t>
+          <t>metadata__status</t>
         </is>
       </c>
       <c r="JQ1" s="2" t="inlineStr">
         <is>
-          <t>metadata_expirationDate</t>
+          <t>metadata__expirationDate</t>
         </is>
       </c>
       <c r="JR1" s="2" t="inlineStr">
         <is>
-          <t>metadata_issueDate</t>
+          <t>metadata__issueDate</t>
         </is>
       </c>
       <c r="JS1" s="2" t="inlineStr">
         <is>
-          <t>metadata_economicOperatorId</t>
+          <t>metadata__economicOperatorId</t>
         </is>
       </c>
       <c r="JT1" s="2" t="inlineStr">
         <is>
-          <t>metadata_passportIdentifier</t>
+          <t>metadata__passportIdentifier</t>
         </is>
       </c>
       <c r="JU1" s="2" t="inlineStr">
         <is>
-          <t>metadata_predecessor</t>
+          <t>metadata__predecessor</t>
         </is>
       </c>
       <c r="JV1" s="2" t="inlineStr">
         <is>
-          <t>metadata_backupReference</t>
+          <t>metadata__backupReference</t>
         </is>
       </c>
       <c r="JW1" s="3" t="inlineStr">
         <is>
-          <t>metadata_registrationIdentifier</t>
+          <t>metadata__registrationIdentifier</t>
         </is>
       </c>
       <c r="JX1" s="3" t="inlineStr">
         <is>
-          <t>metadata_lastModification</t>
+          <t>metadata__lastModification</t>
         </is>
       </c>
       <c r="JY1" s="3" t="inlineStr">
         <is>
-          <t>commercial_placedOnMarket</t>
+          <t>commercial__placedOnMarket</t>
         </is>
       </c>
       <c r="JZ1" s="2" t="inlineStr">
         <is>
-          <t>commercial_purpose[0]</t>
+          <t>commercial__purpose[0]</t>
         </is>
       </c>
       <c r="KA1" s="2" t="inlineStr">
         <is>
-          <t>handling_content_producer[0]_id</t>
+          <t>handling__content__producer[0]__id</t>
         </is>
       </c>
       <c r="KB1" s="2" t="inlineStr">
         <is>
-          <t>handling_content_sparePart[0]_manufacturerPartId</t>
+          <t>handling__content__sparePart[0]__manufacturerPartId</t>
         </is>
       </c>
       <c r="KC1" s="2" t="inlineStr">
         <is>
-          <t>handling_content_sparePart[0]_nameAtManufacturer</t>
+          <t>handling__content__sparePart[0]__nameAtManufacturer</t>
         </is>
       </c>
       <c r="KD1" s="2" t="inlineStr">
         <is>
-          <t>handling_applicable</t>
+          <t>handling__applicable</t>
         </is>
       </c>
     </row>
@@ -2273,7 +2273,7 @@
     <row r="3" ht="30" customHeight="1">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>2. Columns highlighted in olive green are digital twin fields.</t>
+          <t>1. Columns highlighted in olive green are digital twin fields.</t>
         </is>
       </c>
       <c r="B3" s="5" t="n"/>
@@ -2304,7 +2304,7 @@
       </c>
       <c r="B5" s="7" t="inlineStr">
         <is>
-          <t>Digital Twin Field: id</t>
+          <t>Digital Twin Field Name: id</t>
         </is>
       </c>
       <c r="C5" s="7" t="n"/>
@@ -2317,7 +2317,7 @@
       </c>
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>Digital Twin Field: manufacturerPartId</t>
+          <t>Digital Twin Field Name: manufacturerPartId</t>
         </is>
       </c>
       <c r="C6" s="8" t="n"/>
@@ -2330,7 +2330,7 @@
       </c>
       <c r="B7" s="7" t="inlineStr">
         <is>
-          <t>Digital Twin Field: partInstanceId</t>
+          <t>Digital Twin Field Name: partInstanceId</t>
         </is>
       </c>
       <c r="C7" s="7" t="n"/>
@@ -2338,7 +2338,7 @@
     <row r="8">
       <c r="A8" s="8" t="inlineStr">
         <is>
-          <t>identification_category</t>
+          <t>identification__category</t>
         </is>
       </c>
       <c r="B8" s="8" t="inlineStr">
@@ -2356,7 +2356,7 @@
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>identification_idDmc</t>
+          <t>identification__idDmc</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -2373,7 +2373,7 @@
     <row r="10">
       <c r="A10" s="8" t="inlineStr">
         <is>
-          <t>identification_chemistry</t>
+          <t>identification__chemistry</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
@@ -2387,7 +2387,7 @@
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>identification_identification_serial[0]_key</t>
+          <t>identification__identification__serial[0]__key</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -2400,7 +2400,7 @@
     <row r="12">
       <c r="A12" s="8" t="inlineStr">
         <is>
-          <t>identification_identification_serial[0]_value</t>
+          <t>identification__identification__serial[0]__value</t>
         </is>
       </c>
       <c r="B12" s="8" t="inlineStr">
@@ -2413,7 +2413,7 @@
     <row r="13">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>identification_identification_batch[0]_key</t>
+          <t>identification__identification__batch[0]__key</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
@@ -2426,7 +2426,7 @@
     <row r="14">
       <c r="A14" s="8" t="inlineStr">
         <is>
-          <t>identification_identification_batch[0]_value</t>
+          <t>identification__identification__batch[0]__value</t>
         </is>
       </c>
       <c r="B14" s="8" t="inlineStr">
@@ -2439,7 +2439,7 @@
     <row r="15">
       <c r="A15" s="7" t="inlineStr">
         <is>
-          <t>identification_identification_type_manufacturerPartId</t>
+          <t>identification__identification__type__manufacturerPartId</t>
         </is>
       </c>
       <c r="B15" s="7" t="inlineStr">
@@ -2452,7 +2452,7 @@
     <row r="16">
       <c r="A16" s="8" t="inlineStr">
         <is>
-          <t>identification_identification_type_nameAtManufacturer</t>
+          <t>identification__identification__type__nameAtManufacturer</t>
         </is>
       </c>
       <c r="B16" s="8" t="inlineStr">
@@ -2465,7 +2465,7 @@
     <row r="17">
       <c r="A17" s="7" t="inlineStr">
         <is>
-          <t>identification_identification_codes[0]_key</t>
+          <t>identification__identification__codes[0]__key</t>
         </is>
       </c>
       <c r="B17" s="7" t="inlineStr">
@@ -2481,7 +2481,7 @@
     <row r="18">
       <c r="A18" s="8" t="inlineStr">
         <is>
-          <t>identification_identification_codes[0]_value</t>
+          <t>identification__identification__codes[0]__value</t>
         </is>
       </c>
       <c r="B18" s="8" t="inlineStr">
@@ -2494,7 +2494,7 @@
     <row r="19">
       <c r="A19" s="7" t="inlineStr">
         <is>
-          <t>identification_identification_dataCarrier_carrierType</t>
+          <t>identification__identification__dataCarrier__carrierType</t>
         </is>
       </c>
       <c r="B19" s="7" t="inlineStr">
@@ -2508,7 +2508,7 @@
     <row r="20">
       <c r="A20" s="8" t="inlineStr">
         <is>
-          <t>identification_identification_dataCarrier_carrierLayout</t>
+          <t>identification__identification__dataCarrier__carrierLayout</t>
         </is>
       </c>
       <c r="B20" s="8" t="inlineStr">
@@ -2522,7 +2522,7 @@
     <row r="21">
       <c r="A21" s="7" t="inlineStr">
         <is>
-          <t>identification_identification_classification[0]_classificationStandard</t>
+          <t>identification__identification__classification[0]__classificationStandard</t>
         </is>
       </c>
       <c r="B21" s="7" t="inlineStr">
@@ -2535,7 +2535,7 @@
     <row r="22">
       <c r="A22" s="8" t="inlineStr">
         <is>
-          <t>identification_identification_classification[0]_classificationID</t>
+          <t>identification__identification__classification[0]__classificationID</t>
         </is>
       </c>
       <c r="B22" s="8" t="inlineStr">
@@ -2548,7 +2548,7 @@
     <row r="23">
       <c r="A23" s="7" t="inlineStr">
         <is>
-          <t>identification_identification_classification[0]_classificationDescription</t>
+          <t>identification__identification__classification[0]__classificationDescription</t>
         </is>
       </c>
       <c r="B23" s="7" t="inlineStr">
@@ -2561,7 +2561,7 @@
     <row r="24">
       <c r="A24" s="8" t="inlineStr">
         <is>
-          <t>operation_intoServiceDate</t>
+          <t>operation__intoServiceDate</t>
         </is>
       </c>
       <c r="B24" s="8" t="inlineStr">
@@ -2577,7 +2577,7 @@
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
         <is>
-          <t>operation_manufacturer_facility[0]_facility</t>
+          <t>operation__manufacturer__facility[0]__facility</t>
         </is>
       </c>
       <c r="B25" s="7" t="inlineStr">
@@ -2592,7 +2592,7 @@
     <row r="26">
       <c r="A26" s="8" t="inlineStr">
         <is>
-          <t>operation_manufacturer_manufacturer</t>
+          <t>operation__manufacturer__manufacturer</t>
         </is>
       </c>
       <c r="B26" s="8" t="inlineStr">
@@ -2607,7 +2607,7 @@
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
         <is>
-          <t>operation_manufacturer_manufacturingDate</t>
+          <t>operation__manufacturer__manufacturingDate</t>
         </is>
       </c>
       <c r="B27" s="7" t="inlineStr">
@@ -2620,7 +2620,7 @@
     <row r="28">
       <c r="A28" s="8" t="inlineStr">
         <is>
-          <t>characteristics_warranty_lifeValue</t>
+          <t>characteristics__warranty__lifeValue</t>
         </is>
       </c>
       <c r="B28" s="8" t="inlineStr">
@@ -2633,7 +2633,7 @@
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
         <is>
-          <t>characteristics_warranty_lifeUnit</t>
+          <t>characteristics__warranty__lifeUnit</t>
         </is>
       </c>
       <c r="B29" s="7" t="inlineStr">
@@ -2650,7 +2650,7 @@
     <row r="30">
       <c r="A30" s="8" t="inlineStr">
         <is>
-          <t>characteristics_physicalDimension_height_value</t>
+          <t>characteristics__physicalDimension__height__value</t>
         </is>
       </c>
       <c r="B30" s="8" t="inlineStr">
@@ -2663,7 +2663,7 @@
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
         <is>
-          <t>characteristics_physicalDimension_height_unit</t>
+          <t>characteristics__physicalDimension__height__unit</t>
         </is>
       </c>
       <c r="B31" s="7" t="inlineStr">
@@ -2680,7 +2680,7 @@
     <row r="32">
       <c r="A32" s="8" t="inlineStr">
         <is>
-          <t>characteristics_physicalDimension_length_value</t>
+          <t>characteristics__physicalDimension__length__value</t>
         </is>
       </c>
       <c r="B32" s="8" t="inlineStr">
@@ -2693,7 +2693,7 @@
     <row r="33">
       <c r="A33" s="7" t="inlineStr">
         <is>
-          <t>characteristics_physicalDimension_length_unit</t>
+          <t>characteristics__physicalDimension__length__unit</t>
         </is>
       </c>
       <c r="B33" s="7" t="inlineStr">
@@ -2710,7 +2710,7 @@
     <row r="34">
       <c r="A34" s="8" t="inlineStr">
         <is>
-          <t>characteristics_physicalDimension_width_value</t>
+          <t>characteristics__physicalDimension__width__value</t>
         </is>
       </c>
       <c r="B34" s="8" t="inlineStr">
@@ -2723,7 +2723,7 @@
     <row r="35">
       <c r="A35" s="7" t="inlineStr">
         <is>
-          <t>characteristics_physicalDimension_width_unit</t>
+          <t>characteristics__physicalDimension__width__unit</t>
         </is>
       </c>
       <c r="B35" s="7" t="inlineStr">
@@ -2740,7 +2740,7 @@
     <row r="36">
       <c r="A36" s="8" t="inlineStr">
         <is>
-          <t>characteristics_physicalDimension_weight_value</t>
+          <t>characteristics__physicalDimension__weight__value</t>
         </is>
       </c>
       <c r="B36" s="8" t="inlineStr">
@@ -2753,7 +2753,7 @@
     <row r="37">
       <c r="A37" s="7" t="inlineStr">
         <is>
-          <t>characteristics_physicalDimension_weight_unit</t>
+          <t>characteristics__physicalDimension__weight__unit</t>
         </is>
       </c>
       <c r="B37" s="7" t="inlineStr">
@@ -2770,7 +2770,7 @@
     <row r="38">
       <c r="A38" s="8" t="inlineStr">
         <is>
-          <t>sustainability_documents_separateCollection[0]_content</t>
+          <t>sustainability__documents__separateCollection[0]__content</t>
         </is>
       </c>
       <c r="B38" s="8" t="inlineStr">
@@ -2783,7 +2783,7 @@
     <row r="39">
       <c r="A39" s="7" t="inlineStr">
         <is>
-          <t>sustainability_documents_separateCollection[0]_contentType</t>
+          <t>sustainability__documents__separateCollection[0]__contentType</t>
         </is>
       </c>
       <c r="B39" s="7" t="inlineStr">
@@ -2796,7 +2796,7 @@
     <row r="40">
       <c r="A40" s="8" t="inlineStr">
         <is>
-          <t>sustainability_documents_separateCollection[0]_header</t>
+          <t>sustainability__documents__separateCollection[0]__header</t>
         </is>
       </c>
       <c r="B40" s="8" t="inlineStr">
@@ -2809,7 +2809,7 @@
     <row r="41">
       <c r="A41" s="7" t="inlineStr">
         <is>
-          <t>sustainability_documents_wastePrevention[0]_content</t>
+          <t>sustainability__documents__wastePrevention[0]__content</t>
         </is>
       </c>
       <c r="B41" s="7" t="inlineStr">
@@ -2822,7 +2822,7 @@
     <row r="42">
       <c r="A42" s="8" t="inlineStr">
         <is>
-          <t>sustainability_documents_wastePrevention[0]_contentType</t>
+          <t>sustainability__documents__wastePrevention[0]__contentType</t>
         </is>
       </c>
       <c r="B42" s="8" t="inlineStr">
@@ -2835,7 +2835,7 @@
     <row r="43">
       <c r="A43" s="7" t="inlineStr">
         <is>
-          <t>sustainability_documents_wastePrevention[0]_header</t>
+          <t>sustainability__documents__wastePrevention[0]__header</t>
         </is>
       </c>
       <c r="B43" s="7" t="inlineStr">
@@ -2848,7 +2848,7 @@
     <row r="44">
       <c r="A44" s="8" t="inlineStr">
         <is>
-          <t>sustainability_documents_euTaxonomyDisclosureStatement[0]_content</t>
+          <t>sustainability__documents__euTaxonomyDisclosureStatement[0]__content</t>
         </is>
       </c>
       <c r="B44" s="8" t="inlineStr">
@@ -2861,7 +2861,7 @@
     <row r="45">
       <c r="A45" s="7" t="inlineStr">
         <is>
-          <t>sustainability_documents_euTaxonomyDisclosureStatement[0]_contentType</t>
+          <t>sustainability__documents__euTaxonomyDisclosureStatement[0]__contentType</t>
         </is>
       </c>
       <c r="B45" s="7" t="inlineStr">
@@ -2874,7 +2874,7 @@
     <row r="46">
       <c r="A46" s="8" t="inlineStr">
         <is>
-          <t>sustainability_documents_euTaxonomyDisclosureStatement[0]_header</t>
+          <t>sustainability__documents__euTaxonomyDisclosureStatement[0]__header</t>
         </is>
       </c>
       <c r="B46" s="8" t="inlineStr">
@@ -2887,7 +2887,7 @@
     <row r="47">
       <c r="A47" s="7" t="inlineStr">
         <is>
-          <t>sustainability_documents_sustainabilityReport[0]_content</t>
+          <t>sustainability__documents__sustainabilityReport[0]__content</t>
         </is>
       </c>
       <c r="B47" s="7" t="inlineStr">
@@ -2900,7 +2900,7 @@
     <row r="48">
       <c r="A48" s="8" t="inlineStr">
         <is>
-          <t>sustainability_documents_sustainabilityReport[0]_contentType</t>
+          <t>sustainability__documents__sustainabilityReport[0]__contentType</t>
         </is>
       </c>
       <c r="B48" s="8" t="inlineStr">
@@ -2913,7 +2913,7 @@
     <row r="49">
       <c r="A49" s="7" t="inlineStr">
         <is>
-          <t>sustainability_documents_sustainabilityReport[0]_header</t>
+          <t>sustainability__documents__sustainabilityReport[0]__header</t>
         </is>
       </c>
       <c r="B49" s="7" t="inlineStr">
@@ -2926,7 +2926,7 @@
     <row r="50">
       <c r="A50" s="8" t="inlineStr">
         <is>
-          <t>sustainability_carbonFootprint[0]_value</t>
+          <t>sustainability__carbonFootprint[0]__value</t>
         </is>
       </c>
       <c r="B50" s="8" t="inlineStr">
@@ -2943,7 +2943,7 @@
     <row r="51">
       <c r="A51" s="7" t="inlineStr">
         <is>
-          <t>sustainability_carbonFootprint[0]_rulebook[0]_content</t>
+          <t>sustainability__carbonFootprint[0]__rulebook[0]__content</t>
         </is>
       </c>
       <c r="B51" s="7" t="inlineStr">
@@ -2956,7 +2956,7 @@
     <row r="52">
       <c r="A52" s="8" t="inlineStr">
         <is>
-          <t>sustainability_carbonFootprint[0]_rulebook[0]_contentType</t>
+          <t>sustainability__carbonFootprint[0]__rulebook[0]__contentType</t>
         </is>
       </c>
       <c r="B52" s="8" t="inlineStr">
@@ -2969,7 +2969,7 @@
     <row r="53">
       <c r="A53" s="7" t="inlineStr">
         <is>
-          <t>sustainability_carbonFootprint[0]_rulebook[0]_header</t>
+          <t>sustainability__carbonFootprint[0]__rulebook[0]__header</t>
         </is>
       </c>
       <c r="B53" s="7" t="inlineStr">
@@ -2982,7 +2982,7 @@
     <row r="54">
       <c r="A54" s="8" t="inlineStr">
         <is>
-          <t>sustainability_carbonFootprint[0]_lifecycle</t>
+          <t>sustainability__carbonFootprint[0]__lifecycle</t>
         </is>
       </c>
       <c r="B54" s="8" t="inlineStr">
@@ -2995,7 +2995,7 @@
     <row r="55">
       <c r="A55" s="7" t="inlineStr">
         <is>
-          <t>sustainability_carbonFootprint[0]_unit</t>
+          <t>sustainability__carbonFootprint[0]__unit</t>
         </is>
       </c>
       <c r="B55" s="7" t="inlineStr">
@@ -3008,7 +3008,7 @@
     <row r="56">
       <c r="A56" s="8" t="inlineStr">
         <is>
-          <t>sustainability_carbonFootprint[0]_type</t>
+          <t>sustainability__carbonFootprint[0]__type</t>
         </is>
       </c>
       <c r="B56" s="8" t="inlineStr">
@@ -3030,7 +3030,7 @@
     <row r="57">
       <c r="A57" s="7" t="inlineStr">
         <is>
-          <t>sustainability_carbonFootprint[0]_performanceClass</t>
+          <t>sustainability__carbonFootprint[0]__performanceClass</t>
         </is>
       </c>
       <c r="B57" s="7" t="inlineStr">
@@ -3043,7 +3043,7 @@
     <row r="58">
       <c r="A58" s="8" t="inlineStr">
         <is>
-          <t>sustainability_carbonFootprint[0]_manufacturingPlant[0]_facility</t>
+          <t>sustainability__carbonFootprint[0]__manufacturingPlant[0]__facility</t>
         </is>
       </c>
       <c r="B58" s="8" t="inlineStr">
@@ -3058,7 +3058,7 @@
     <row r="59">
       <c r="A59" s="7" t="inlineStr">
         <is>
-          <t>sustainability_carbonFootprint[0]_declaration[0]_content</t>
+          <t>sustainability__carbonFootprint[0]__declaration[0]__content</t>
         </is>
       </c>
       <c r="B59" s="7" t="inlineStr">
@@ -3071,7 +3071,7 @@
     <row r="60">
       <c r="A60" s="8" t="inlineStr">
         <is>
-          <t>sustainability_carbonFootprint[0]_declaration[0]_contentType</t>
+          <t>sustainability__carbonFootprint[0]__declaration[0]__contentType</t>
         </is>
       </c>
       <c r="B60" s="8" t="inlineStr">
@@ -3084,7 +3084,7 @@
     <row r="61">
       <c r="A61" s="7" t="inlineStr">
         <is>
-          <t>sustainability_carbonFootprint[0]_declaration[0]_header</t>
+          <t>sustainability__carbonFootprint[0]__declaration[0]__header</t>
         </is>
       </c>
       <c r="B61" s="7" t="inlineStr">
@@ -3097,7 +3097,7 @@
     <row r="62">
       <c r="A62" s="8" t="inlineStr">
         <is>
-          <t>sustainability_status</t>
+          <t>sustainability__status</t>
         </is>
       </c>
       <c r="B62" s="8" t="inlineStr">
@@ -3115,7 +3115,7 @@
     <row r="63">
       <c r="A63" s="7" t="inlineStr">
         <is>
-          <t>materials_active_nickel_location</t>
+          <t>materials__active__nickel__location</t>
         </is>
       </c>
       <c r="B63" s="7" t="inlineStr">
@@ -3129,7 +3129,7 @@
     <row r="64">
       <c r="A64" s="8" t="inlineStr">
         <is>
-          <t>materials_active_nickel_recycled</t>
+          <t>materials__active__nickel__recycled</t>
         </is>
       </c>
       <c r="B64" s="8" t="inlineStr">
@@ -3143,7 +3143,7 @@
     <row r="65">
       <c r="A65" s="7" t="inlineStr">
         <is>
-          <t>materials_active_nickel_documentation[0]_content</t>
+          <t>materials__active__nickel__documentation[0]__content</t>
         </is>
       </c>
       <c r="B65" s="7" t="inlineStr">
@@ -3156,7 +3156,7 @@
     <row r="66">
       <c r="A66" s="8" t="inlineStr">
         <is>
-          <t>materials_active_nickel_documentation[0]_contentType</t>
+          <t>materials__active__nickel__documentation[0]__contentType</t>
         </is>
       </c>
       <c r="B66" s="8" t="inlineStr">
@@ -3169,7 +3169,7 @@
     <row r="67">
       <c r="A67" s="7" t="inlineStr">
         <is>
-          <t>materials_active_nickel_documentation[0]_header</t>
+          <t>materials__active__nickel__documentation[0]__header</t>
         </is>
       </c>
       <c r="B67" s="7" t="inlineStr">
@@ -3182,7 +3182,7 @@
     <row r="68">
       <c r="A68" s="8" t="inlineStr">
         <is>
-          <t>materials_active_nickel_critical</t>
+          <t>materials__active__nickel__critical</t>
         </is>
       </c>
       <c r="B68" s="8" t="inlineStr">
@@ -3197,7 +3197,7 @@
     <row r="69">
       <c r="A69" s="7" t="inlineStr">
         <is>
-          <t>materials_active_lithium_location</t>
+          <t>materials__active__lithium__location</t>
         </is>
       </c>
       <c r="B69" s="7" t="inlineStr">
@@ -3211,7 +3211,7 @@
     <row r="70">
       <c r="A70" s="8" t="inlineStr">
         <is>
-          <t>materials_active_lithium_recycled</t>
+          <t>materials__active__lithium__recycled</t>
         </is>
       </c>
       <c r="B70" s="8" t="inlineStr">
@@ -3225,7 +3225,7 @@
     <row r="71">
       <c r="A71" s="7" t="inlineStr">
         <is>
-          <t>materials_active_lithium_documentation[0]_content</t>
+          <t>materials__active__lithium__documentation[0]__content</t>
         </is>
       </c>
       <c r="B71" s="7" t="inlineStr">
@@ -3238,7 +3238,7 @@
     <row r="72">
       <c r="A72" s="8" t="inlineStr">
         <is>
-          <t>materials_active_lithium_documentation[0]_contentType</t>
+          <t>materials__active__lithium__documentation[0]__contentType</t>
         </is>
       </c>
       <c r="B72" s="8" t="inlineStr">
@@ -3251,7 +3251,7 @@
     <row r="73">
       <c r="A73" s="7" t="inlineStr">
         <is>
-          <t>materials_active_lithium_documentation[0]_header</t>
+          <t>materials__active__lithium__documentation[0]__header</t>
         </is>
       </c>
       <c r="B73" s="7" t="inlineStr">
@@ -3264,7 +3264,7 @@
     <row r="74">
       <c r="A74" s="8" t="inlineStr">
         <is>
-          <t>materials_active_lithium_critical</t>
+          <t>materials__active__lithium__critical</t>
         </is>
       </c>
       <c r="B74" s="8" t="inlineStr">
@@ -3279,7 +3279,7 @@
     <row r="75">
       <c r="A75" s="7" t="inlineStr">
         <is>
-          <t>materials_active_cobalt_location</t>
+          <t>materials__active__cobalt__location</t>
         </is>
       </c>
       <c r="B75" s="7" t="inlineStr">
@@ -3293,7 +3293,7 @@
     <row r="76">
       <c r="A76" s="8" t="inlineStr">
         <is>
-          <t>materials_active_cobalt_recycled</t>
+          <t>materials__active__cobalt__recycled</t>
         </is>
       </c>
       <c r="B76" s="8" t="inlineStr">
@@ -3307,7 +3307,7 @@
     <row r="77">
       <c r="A77" s="7" t="inlineStr">
         <is>
-          <t>materials_active_cobalt_documentation[0]_content</t>
+          <t>materials__active__cobalt__documentation[0]__content</t>
         </is>
       </c>
       <c r="B77" s="7" t="inlineStr">
@@ -3320,7 +3320,7 @@
     <row r="78">
       <c r="A78" s="8" t="inlineStr">
         <is>
-          <t>materials_active_cobalt_documentation[0]_contentType</t>
+          <t>materials__active__cobalt__documentation[0]__contentType</t>
         </is>
       </c>
       <c r="B78" s="8" t="inlineStr">
@@ -3333,7 +3333,7 @@
     <row r="79">
       <c r="A79" s="7" t="inlineStr">
         <is>
-          <t>materials_active_cobalt_documentation[0]_header</t>
+          <t>materials__active__cobalt__documentation[0]__header</t>
         </is>
       </c>
       <c r="B79" s="7" t="inlineStr">
@@ -3346,7 +3346,7 @@
     <row r="80">
       <c r="A80" s="8" t="inlineStr">
         <is>
-          <t>materials_active_cobalt_critical</t>
+          <t>materials__active__cobalt__critical</t>
         </is>
       </c>
       <c r="B80" s="8" t="inlineStr">
@@ -3361,7 +3361,7 @@
     <row r="81">
       <c r="A81" s="7" t="inlineStr">
         <is>
-          <t>materials_active_lead_impactOfSubstances[0]_content</t>
+          <t>materials__active__lead__impactOfSubstances[0]__content</t>
         </is>
       </c>
       <c r="B81" s="7" t="inlineStr">
@@ -3374,7 +3374,7 @@
     <row r="82">
       <c r="A82" s="8" t="inlineStr">
         <is>
-          <t>materials_active_lead_impactOfSubstances[0]_contentType</t>
+          <t>materials__active__lead__impactOfSubstances[0]__contentType</t>
         </is>
       </c>
       <c r="B82" s="8" t="inlineStr">
@@ -3387,7 +3387,7 @@
     <row r="83">
       <c r="A83" s="7" t="inlineStr">
         <is>
-          <t>materials_active_lead_impactOfSubstances[0]_header</t>
+          <t>materials__active__lead__impactOfSubstances[0]__header</t>
         </is>
       </c>
       <c r="B83" s="7" t="inlineStr">
@@ -3400,7 +3400,7 @@
     <row r="84">
       <c r="A84" s="8" t="inlineStr">
         <is>
-          <t>materials_active_lead_critical</t>
+          <t>materials__active__lead__critical</t>
         </is>
       </c>
       <c r="B84" s="8" t="inlineStr">
@@ -3415,7 +3415,7 @@
     <row r="85">
       <c r="A85" s="7" t="inlineStr">
         <is>
-          <t>materials_active_lead_documentation[0]_content</t>
+          <t>materials__active__lead__documentation[0]__content</t>
         </is>
       </c>
       <c r="B85" s="7" t="inlineStr">
@@ -3428,7 +3428,7 @@
     <row r="86">
       <c r="A86" s="8" t="inlineStr">
         <is>
-          <t>materials_active_lead_documentation[0]_contentType</t>
+          <t>materials__active__lead__documentation[0]__contentType</t>
         </is>
       </c>
       <c r="B86" s="8" t="inlineStr">
@@ -3441,7 +3441,7 @@
     <row r="87">
       <c r="A87" s="7" t="inlineStr">
         <is>
-          <t>materials_active_lead_documentation[0]_header</t>
+          <t>materials__active__lead__documentation[0]__header</t>
         </is>
       </c>
       <c r="B87" s="7" t="inlineStr">
@@ -3454,7 +3454,7 @@
     <row r="88">
       <c r="A88" s="8" t="inlineStr">
         <is>
-          <t>materials_active_lead_recycled</t>
+          <t>materials__active__lead__recycled</t>
         </is>
       </c>
       <c r="B88" s="8" t="inlineStr">
@@ -3468,7 +3468,7 @@
     <row r="89">
       <c r="A89" s="7" t="inlineStr">
         <is>
-          <t>materials_active_lead_location</t>
+          <t>materials__active__lead__location</t>
         </is>
       </c>
       <c r="B89" s="7" t="inlineStr">
@@ -3482,7 +3482,7 @@
     <row r="90">
       <c r="A90" s="8" t="inlineStr">
         <is>
-          <t>materials_active_lead_concentration</t>
+          <t>materials__active__lead__concentration</t>
         </is>
       </c>
       <c r="B90" s="8" t="inlineStr">
@@ -3499,7 +3499,7 @@
     <row r="91">
       <c r="A91" s="7" t="inlineStr">
         <is>
-          <t>materials_active_lead_materialUnit</t>
+          <t>materials__active__lead__materialUnit</t>
         </is>
       </c>
       <c r="B91" s="7" t="inlineStr">
@@ -3516,7 +3516,7 @@
     <row r="92">
       <c r="A92" s="8" t="inlineStr">
         <is>
-          <t>materials_active_other[0]_location</t>
+          <t>materials__active__other[0]__location</t>
         </is>
       </c>
       <c r="B92" s="8" t="inlineStr">
@@ -3530,7 +3530,7 @@
     <row r="93">
       <c r="A93" s="7" t="inlineStr">
         <is>
-          <t>materials_active_other[0]_recycled</t>
+          <t>materials__active__other[0]__recycled</t>
         </is>
       </c>
       <c r="B93" s="7" t="inlineStr">
@@ -3544,7 +3544,7 @@
     <row r="94">
       <c r="A94" s="8" t="inlineStr">
         <is>
-          <t>materials_active_other[0]_documentation[0]_content</t>
+          <t>materials__active__other[0]__documentation[0]__content</t>
         </is>
       </c>
       <c r="B94" s="8" t="inlineStr">
@@ -3557,7 +3557,7 @@
     <row r="95">
       <c r="A95" s="7" t="inlineStr">
         <is>
-          <t>materials_active_other[0]_documentation[0]_contentType</t>
+          <t>materials__active__other[0]__documentation[0]__contentType</t>
         </is>
       </c>
       <c r="B95" s="7" t="inlineStr">
@@ -3570,7 +3570,7 @@
     <row r="96">
       <c r="A96" s="8" t="inlineStr">
         <is>
-          <t>materials_active_other[0]_documentation[0]_header</t>
+          <t>materials__active__other[0]__documentation[0]__header</t>
         </is>
       </c>
       <c r="B96" s="8" t="inlineStr">
@@ -3583,7 +3583,7 @@
     <row r="97">
       <c r="A97" s="7" t="inlineStr">
         <is>
-          <t>materials_active_other[0]_critical</t>
+          <t>materials__active__other[0]__critical</t>
         </is>
       </c>
       <c r="B97" s="7" t="inlineStr">
@@ -3598,7 +3598,7 @@
     <row r="98">
       <c r="A98" s="8" t="inlineStr">
         <is>
-          <t>materials_active_other[0]_materialIdentification[0]_id</t>
+          <t>materials__active__other[0]__materialIdentification[0]__id</t>
         </is>
       </c>
       <c r="B98" s="8" t="inlineStr">
@@ -3611,7 +3611,7 @@
     <row r="99">
       <c r="A99" s="7" t="inlineStr">
         <is>
-          <t>materials_active_other[0]_materialIdentification[0]_type</t>
+          <t>materials__active__other[0]__materialIdentification[0]__type</t>
         </is>
       </c>
       <c r="B99" s="7" t="inlineStr">
@@ -3628,7 +3628,7 @@
     <row r="100">
       <c r="A100" s="8" t="inlineStr">
         <is>
-          <t>materials_active_other[0]_materialIdentification[0]_name</t>
+          <t>materials__active__other[0]__materialIdentification[0]__name</t>
         </is>
       </c>
       <c r="B100" s="8" t="inlineStr">
@@ -3641,7 +3641,7 @@
     <row r="101">
       <c r="A101" s="7" t="inlineStr">
         <is>
-          <t>materials_hazardous_cadmium_impactOfSubstances[0]_content</t>
+          <t>materials__hazardous__cadmium__impactOfSubstances[0]__content</t>
         </is>
       </c>
       <c r="B101" s="7" t="inlineStr">
@@ -3654,7 +3654,7 @@
     <row r="102">
       <c r="A102" s="8" t="inlineStr">
         <is>
-          <t>materials_hazardous_cadmium_impactOfSubstances[0]_contentType</t>
+          <t>materials__hazardous__cadmium__impactOfSubstances[0]__contentType</t>
         </is>
       </c>
       <c r="B102" s="8" t="inlineStr">
@@ -3667,7 +3667,7 @@
     <row r="103">
       <c r="A103" s="7" t="inlineStr">
         <is>
-          <t>materials_hazardous_cadmium_impactOfSubstances[0]_header</t>
+          <t>materials__hazardous__cadmium__impactOfSubstances[0]__header</t>
         </is>
       </c>
       <c r="B103" s="7" t="inlineStr">
@@ -3680,7 +3680,7 @@
     <row r="104">
       <c r="A104" s="8" t="inlineStr">
         <is>
-          <t>materials_hazardous_cadmium_concentration</t>
+          <t>materials__hazardous__cadmium__concentration</t>
         </is>
       </c>
       <c r="B104" s="8" t="inlineStr">
@@ -3697,7 +3697,7 @@
     <row r="105">
       <c r="A105" s="7" t="inlineStr">
         <is>
-          <t>materials_hazardous_cadmium_location</t>
+          <t>materials__hazardous__cadmium__location</t>
         </is>
       </c>
       <c r="B105" s="7" t="inlineStr">
@@ -3711,7 +3711,7 @@
     <row r="106">
       <c r="A106" s="8" t="inlineStr">
         <is>
-          <t>materials_hazardous_cadmium_materialUnit</t>
+          <t>materials__hazardous__cadmium__materialUnit</t>
         </is>
       </c>
       <c r="B106" s="8" t="inlineStr">
@@ -3728,7 +3728,7 @@
     <row r="107">
       <c r="A107" s="7" t="inlineStr">
         <is>
-          <t>materials_hazardous_cadmium_critical</t>
+          <t>materials__hazardous__cadmium__critical</t>
         </is>
       </c>
       <c r="B107" s="7" t="inlineStr">
@@ -3743,7 +3743,7 @@
     <row r="108">
       <c r="A108" s="8" t="inlineStr">
         <is>
-          <t>materials_hazardous_cadmium_documentation[0]_content</t>
+          <t>materials__hazardous__cadmium__documentation[0]__content</t>
         </is>
       </c>
       <c r="B108" s="8" t="inlineStr">
@@ -3756,7 +3756,7 @@
     <row r="109">
       <c r="A109" s="7" t="inlineStr">
         <is>
-          <t>materials_hazardous_cadmium_documentation[0]_contentType</t>
+          <t>materials__hazardous__cadmium__documentation[0]__contentType</t>
         </is>
       </c>
       <c r="B109" s="7" t="inlineStr">
@@ -3769,7 +3769,7 @@
     <row r="110">
       <c r="A110" s="8" t="inlineStr">
         <is>
-          <t>materials_hazardous_cadmium_documentation[0]_header</t>
+          <t>materials__hazardous__cadmium__documentation[0]__header</t>
         </is>
       </c>
       <c r="B110" s="8" t="inlineStr">
@@ -3782,7 +3782,7 @@
     <row r="111">
       <c r="A111" s="7" t="inlineStr">
         <is>
-          <t>materials_hazardous_mercury_impactOfSubstances[0]_content</t>
+          <t>materials__hazardous__mercury__impactOfSubstances[0]__content</t>
         </is>
       </c>
       <c r="B111" s="7" t="inlineStr">
@@ -3795,7 +3795,7 @@
     <row r="112">
       <c r="A112" s="8" t="inlineStr">
         <is>
-          <t>materials_hazardous_mercury_impactOfSubstances[0]_contentType</t>
+          <t>materials__hazardous__mercury__impactOfSubstances[0]__contentType</t>
         </is>
       </c>
       <c r="B112" s="8" t="inlineStr">
@@ -3808,7 +3808,7 @@
     <row r="113">
       <c r="A113" s="7" t="inlineStr">
         <is>
-          <t>materials_hazardous_mercury_impactOfSubstances[0]_header</t>
+          <t>materials__hazardous__mercury__impactOfSubstances[0]__header</t>
         </is>
       </c>
       <c r="B113" s="7" t="inlineStr">
@@ -3821,7 +3821,7 @@
     <row r="114">
       <c r="A114" s="8" t="inlineStr">
         <is>
-          <t>materials_hazardous_mercury_concentration</t>
+          <t>materials__hazardous__mercury__concentration</t>
         </is>
       </c>
       <c r="B114" s="8" t="inlineStr">
@@ -3838,7 +3838,7 @@
     <row r="115">
       <c r="A115" s="7" t="inlineStr">
         <is>
-          <t>materials_hazardous_mercury_location</t>
+          <t>materials__hazardous__mercury__location</t>
         </is>
       </c>
       <c r="B115" s="7" t="inlineStr">
@@ -3852,7 +3852,7 @@
     <row r="116">
       <c r="A116" s="8" t="inlineStr">
         <is>
-          <t>materials_hazardous_mercury_materialUnit</t>
+          <t>materials__hazardous__mercury__materialUnit</t>
         </is>
       </c>
       <c r="B116" s="8" t="inlineStr">
@@ -3869,7 +3869,7 @@
     <row r="117">
       <c r="A117" s="7" t="inlineStr">
         <is>
-          <t>materials_hazardous_mercury_critical</t>
+          <t>materials__hazardous__mercury__critical</t>
         </is>
       </c>
       <c r="B117" s="7" t="inlineStr">
@@ -3884,7 +3884,7 @@
     <row r="118">
       <c r="A118" s="8" t="inlineStr">
         <is>
-          <t>materials_hazardous_mercury_documentation[0]_content</t>
+          <t>materials__hazardous__mercury__documentation[0]__content</t>
         </is>
       </c>
       <c r="B118" s="8" t="inlineStr">
@@ -3897,7 +3897,7 @@
     <row r="119">
       <c r="A119" s="7" t="inlineStr">
         <is>
-          <t>materials_hazardous_mercury_documentation[0]_contentType</t>
+          <t>materials__hazardous__mercury__documentation[0]__contentType</t>
         </is>
       </c>
       <c r="B119" s="7" t="inlineStr">
@@ -3910,7 +3910,7 @@
     <row r="120">
       <c r="A120" s="8" t="inlineStr">
         <is>
-          <t>materials_hazardous_mercury_documentation[0]_header</t>
+          <t>materials__hazardous__mercury__documentation[0]__header</t>
         </is>
       </c>
       <c r="B120" s="8" t="inlineStr">
@@ -3923,7 +3923,7 @@
     <row r="121">
       <c r="A121" s="7" t="inlineStr">
         <is>
-          <t>materials_hazardous_other[0]_impactOfSubstances[0]_content</t>
+          <t>materials__hazardous__other[0]__impactOfSubstances[0]__content</t>
         </is>
       </c>
       <c r="B121" s="7" t="inlineStr">
@@ -3936,7 +3936,7 @@
     <row r="122">
       <c r="A122" s="8" t="inlineStr">
         <is>
-          <t>materials_hazardous_other[0]_impactOfSubstances[0]_contentType</t>
+          <t>materials__hazardous__other[0]__impactOfSubstances[0]__contentType</t>
         </is>
       </c>
       <c r="B122" s="8" t="inlineStr">
@@ -3949,7 +3949,7 @@
     <row r="123">
       <c r="A123" s="7" t="inlineStr">
         <is>
-          <t>materials_hazardous_other[0]_impactOfSubstances[0]_header</t>
+          <t>materials__hazardous__other[0]__impactOfSubstances[0]__header</t>
         </is>
       </c>
       <c r="B123" s="7" t="inlineStr">
@@ -3962,7 +3962,7 @@
     <row r="124">
       <c r="A124" s="8" t="inlineStr">
         <is>
-          <t>materials_hazardous_other[0]_materialUnit</t>
+          <t>materials__hazardous__other[0]__materialUnit</t>
         </is>
       </c>
       <c r="B124" s="8" t="inlineStr">
@@ -3979,7 +3979,7 @@
     <row r="125">
       <c r="A125" s="7" t="inlineStr">
         <is>
-          <t>materials_hazardous_other[0]_concentration</t>
+          <t>materials__hazardous__other[0]__concentration</t>
         </is>
       </c>
       <c r="B125" s="7" t="inlineStr">
@@ -3996,7 +3996,7 @@
     <row r="126">
       <c r="A126" s="8" t="inlineStr">
         <is>
-          <t>materials_hazardous_other[0]_materialIdentification[0]_id</t>
+          <t>materials__hazardous__other[0]__materialIdentification[0]__id</t>
         </is>
       </c>
       <c r="B126" s="8" t="inlineStr">
@@ -4009,7 +4009,7 @@
     <row r="127">
       <c r="A127" s="7" t="inlineStr">
         <is>
-          <t>materials_hazardous_other[0]_materialIdentification[0]_type</t>
+          <t>materials__hazardous__other[0]__materialIdentification[0]__type</t>
         </is>
       </c>
       <c r="B127" s="7" t="inlineStr">
@@ -4026,7 +4026,7 @@
     <row r="128">
       <c r="A128" s="8" t="inlineStr">
         <is>
-          <t>materials_hazardous_other[0]_materialIdentification[0]_name</t>
+          <t>materials__hazardous__other[0]__materialIdentification[0]__name</t>
         </is>
       </c>
       <c r="B128" s="8" t="inlineStr">
@@ -4039,7 +4039,7 @@
     <row r="129">
       <c r="A129" s="7" t="inlineStr">
         <is>
-          <t>materials_hazardous_other[0]_documentation[0]_content</t>
+          <t>materials__hazardous__other[0]__documentation[0]__content</t>
         </is>
       </c>
       <c r="B129" s="7" t="inlineStr">
@@ -4052,7 +4052,7 @@
     <row r="130">
       <c r="A130" s="8" t="inlineStr">
         <is>
-          <t>materials_hazardous_other[0]_documentation[0]_contentType</t>
+          <t>materials__hazardous__other[0]__documentation[0]__contentType</t>
         </is>
       </c>
       <c r="B130" s="8" t="inlineStr">
@@ -4065,7 +4065,7 @@
     <row r="131">
       <c r="A131" s="7" t="inlineStr">
         <is>
-          <t>materials_hazardous_other[0]_documentation[0]_header</t>
+          <t>materials__hazardous__other[0]__documentation[0]__header</t>
         </is>
       </c>
       <c r="B131" s="7" t="inlineStr">
@@ -4078,7 +4078,7 @@
     <row r="132">
       <c r="A132" s="8" t="inlineStr">
         <is>
-          <t>materials_hazardous_other[0]_critical</t>
+          <t>materials__hazardous__other[0]__critical</t>
         </is>
       </c>
       <c r="B132" s="8" t="inlineStr">
@@ -4093,7 +4093,7 @@
     <row r="133">
       <c r="A133" s="7" t="inlineStr">
         <is>
-          <t>materials_hazardous_other[0]_location</t>
+          <t>materials__hazardous__other[0]__location</t>
         </is>
       </c>
       <c r="B133" s="7" t="inlineStr">
@@ -4107,7 +4107,7 @@
     <row r="134">
       <c r="A134" s="8" t="inlineStr">
         <is>
-          <t>materials_hazardous_lead_impactOfSubstances[0]_content</t>
+          <t>materials__hazardous__lead__impactOfSubstances[0]__content</t>
         </is>
       </c>
       <c r="B134" s="8" t="inlineStr">
@@ -4120,7 +4120,7 @@
     <row r="135">
       <c r="A135" s="7" t="inlineStr">
         <is>
-          <t>materials_hazardous_lead_impactOfSubstances[0]_contentType</t>
+          <t>materials__hazardous__lead__impactOfSubstances[0]__contentType</t>
         </is>
       </c>
       <c r="B135" s="7" t="inlineStr">
@@ -4133,7 +4133,7 @@
     <row r="136">
       <c r="A136" s="8" t="inlineStr">
         <is>
-          <t>materials_hazardous_lead_impactOfSubstances[0]_header</t>
+          <t>materials__hazardous__lead__impactOfSubstances[0]__header</t>
         </is>
       </c>
       <c r="B136" s="8" t="inlineStr">
@@ -4146,7 +4146,7 @@
     <row r="137">
       <c r="A137" s="7" t="inlineStr">
         <is>
-          <t>materials_hazardous_lead_critical</t>
+          <t>materials__hazardous__lead__critical</t>
         </is>
       </c>
       <c r="B137" s="7" t="inlineStr">
@@ -4161,7 +4161,7 @@
     <row r="138">
       <c r="A138" s="8" t="inlineStr">
         <is>
-          <t>materials_hazardous_lead_documentation[0]_content</t>
+          <t>materials__hazardous__lead__documentation[0]__content</t>
         </is>
       </c>
       <c r="B138" s="8" t="inlineStr">
@@ -4174,7 +4174,7 @@
     <row r="139">
       <c r="A139" s="7" t="inlineStr">
         <is>
-          <t>materials_hazardous_lead_documentation[0]_contentType</t>
+          <t>materials__hazardous__lead__documentation[0]__contentType</t>
         </is>
       </c>
       <c r="B139" s="7" t="inlineStr">
@@ -4187,7 +4187,7 @@
     <row r="140">
       <c r="A140" s="8" t="inlineStr">
         <is>
-          <t>materials_hazardous_lead_documentation[0]_header</t>
+          <t>materials__hazardous__lead__documentation[0]__header</t>
         </is>
       </c>
       <c r="B140" s="8" t="inlineStr">
@@ -4200,7 +4200,7 @@
     <row r="141">
       <c r="A141" s="7" t="inlineStr">
         <is>
-          <t>materials_hazardous_lead_recycled</t>
+          <t>materials__hazardous__lead__recycled</t>
         </is>
       </c>
       <c r="B141" s="7" t="inlineStr">
@@ -4214,7 +4214,7 @@
     <row r="142">
       <c r="A142" s="8" t="inlineStr">
         <is>
-          <t>materials_hazardous_lead_location</t>
+          <t>materials__hazardous__lead__location</t>
         </is>
       </c>
       <c r="B142" s="8" t="inlineStr">
@@ -4228,7 +4228,7 @@
     <row r="143">
       <c r="A143" s="7" t="inlineStr">
         <is>
-          <t>materials_hazardous_lead_concentration</t>
+          <t>materials__hazardous__lead__concentration</t>
         </is>
       </c>
       <c r="B143" s="7" t="inlineStr">
@@ -4245,7 +4245,7 @@
     <row r="144">
       <c r="A144" s="8" t="inlineStr">
         <is>
-          <t>materials_hazardous_lead_materialUnit</t>
+          <t>materials__hazardous__lead__materialUnit</t>
         </is>
       </c>
       <c r="B144" s="8" t="inlineStr">
@@ -4262,7 +4262,7 @@
     <row r="145">
       <c r="A145" s="7" t="inlineStr">
         <is>
-          <t>materials_composition[0]_id[0]_id</t>
+          <t>materials__composition[0]__id[0]__id</t>
         </is>
       </c>
       <c r="B145" s="7" t="inlineStr">
@@ -4275,7 +4275,7 @@
     <row r="146">
       <c r="A146" s="8" t="inlineStr">
         <is>
-          <t>materials_composition[0]_id[0]_type</t>
+          <t>materials__composition[0]__id[0]__type</t>
         </is>
       </c>
       <c r="B146" s="8" t="inlineStr">
@@ -4292,7 +4292,7 @@
     <row r="147">
       <c r="A147" s="7" t="inlineStr">
         <is>
-          <t>materials_composition[0]_id[0]_name</t>
+          <t>materials__composition[0]__id[0]__name</t>
         </is>
       </c>
       <c r="B147" s="7" t="inlineStr">
@@ -4305,7 +4305,7 @@
     <row r="148">
       <c r="A148" s="8" t="inlineStr">
         <is>
-          <t>materials_composition[0]_concentration</t>
+          <t>materials__composition[0]__concentration</t>
         </is>
       </c>
       <c r="B148" s="8" t="inlineStr">
@@ -4322,7 +4322,7 @@
     <row r="149">
       <c r="A149" s="7" t="inlineStr">
         <is>
-          <t>materials_composition[0]_unit</t>
+          <t>materials__composition[0]__unit</t>
         </is>
       </c>
       <c r="B149" s="7" t="inlineStr">
@@ -4339,7 +4339,7 @@
     <row r="150">
       <c r="A150" s="8" t="inlineStr">
         <is>
-          <t>materials_composition[0]_critical</t>
+          <t>materials__composition[0]__critical</t>
         </is>
       </c>
       <c r="B150" s="8" t="inlineStr">
@@ -4354,7 +4354,7 @@
     <row r="151">
       <c r="A151" s="7" t="inlineStr">
         <is>
-          <t>materials_composition[0]_documentation[0]_content</t>
+          <t>materials__composition[0]__documentation[0]__content</t>
         </is>
       </c>
       <c r="B151" s="7" t="inlineStr">
@@ -4367,7 +4367,7 @@
     <row r="152">
       <c r="A152" s="8" t="inlineStr">
         <is>
-          <t>materials_composition[0]_documentation[0]_contentType</t>
+          <t>materials__composition[0]__documentation[0]__contentType</t>
         </is>
       </c>
       <c r="B152" s="8" t="inlineStr">
@@ -4380,7 +4380,7 @@
     <row r="153">
       <c r="A153" s="7" t="inlineStr">
         <is>
-          <t>materials_composition[0]_documentation[0]_header</t>
+          <t>materials__composition[0]__documentation[0]__header</t>
         </is>
       </c>
       <c r="B153" s="7" t="inlineStr">
@@ -4393,7 +4393,7 @@
     <row r="154">
       <c r="A154" s="8" t="inlineStr">
         <is>
-          <t>materials_composition[0]_recycled</t>
+          <t>materials__composition[0]__recycled</t>
         </is>
       </c>
       <c r="B154" s="8" t="inlineStr">
@@ -4407,7 +4407,7 @@
     <row r="155">
       <c r="A155" s="7" t="inlineStr">
         <is>
-          <t>materials_composition[0]_location</t>
+          <t>materials__composition[0]__location</t>
         </is>
       </c>
       <c r="B155" s="7" t="inlineStr">
@@ -4421,7 +4421,7 @@
     <row r="156">
       <c r="A156" s="8" t="inlineStr">
         <is>
-          <t>materials_composition[0]_renewable</t>
+          <t>materials__composition[0]__renewable</t>
         </is>
       </c>
       <c r="B156" s="8" t="inlineStr">
@@ -4436,7 +4436,7 @@
     <row r="157">
       <c r="A157" s="7" t="inlineStr">
         <is>
-          <t>performance_rated_voltage_min</t>
+          <t>performance__rated__voltage__min</t>
         </is>
       </c>
       <c r="B157" s="7" t="inlineStr">
@@ -4450,7 +4450,7 @@
     <row r="158">
       <c r="A158" s="8" t="inlineStr">
         <is>
-          <t>performance_rated_voltage_max</t>
+          <t>performance__rated__voltage__max</t>
         </is>
       </c>
       <c r="B158" s="8" t="inlineStr">
@@ -4464,7 +4464,7 @@
     <row r="159">
       <c r="A159" s="7" t="inlineStr">
         <is>
-          <t>performance_rated_voltage_nominal</t>
+          <t>performance__rated__voltage__nominal</t>
         </is>
       </c>
       <c r="B159" s="7" t="inlineStr">
@@ -4478,7 +4478,7 @@
     <row r="160">
       <c r="A160" s="8" t="inlineStr">
         <is>
-          <t>performance_rated_voltage_temperature</t>
+          <t>performance__rated__voltage__temperature</t>
         </is>
       </c>
       <c r="B160" s="8" t="inlineStr">
@@ -4491,7 +4491,7 @@
     <row r="161">
       <c r="A161" s="7" t="inlineStr">
         <is>
-          <t>performance_rated_roundTripEfficiency_depthOfDischarge</t>
+          <t>performance__rated__roundTripEfficiency__depthOfDischarge</t>
         </is>
       </c>
       <c r="B161" s="7" t="inlineStr">
@@ -4505,7 +4505,7 @@
     <row r="162">
       <c r="A162" s="8" t="inlineStr">
         <is>
-          <t>performance_rated_roundTripEfficiency_initial</t>
+          <t>performance__rated__roundTripEfficiency__initial</t>
         </is>
       </c>
       <c r="B162" s="8" t="inlineStr">
@@ -4519,7 +4519,7 @@
     <row r="163">
       <c r="A163" s="7" t="inlineStr">
         <is>
-          <t>performance_rated_roundTripEfficiency_50PercentLife</t>
+          <t>performance__rated__roundTripEfficiency__50PercentLife</t>
         </is>
       </c>
       <c r="B163" s="7" t="inlineStr">
@@ -4533,7 +4533,7 @@
     <row r="164">
       <c r="A164" s="8" t="inlineStr">
         <is>
-          <t>performance_rated_roundTripEfficiency_temperature</t>
+          <t>performance__rated__roundTripEfficiency__temperature</t>
         </is>
       </c>
       <c r="B164" s="8" t="inlineStr">
@@ -4546,7 +4546,7 @@
     <row r="165">
       <c r="A165" s="7" t="inlineStr">
         <is>
-          <t>performance_rated_energy_value</t>
+          <t>performance__rated__energy__value</t>
         </is>
       </c>
       <c r="B165" s="7" t="inlineStr">
@@ -4559,7 +4559,7 @@
     <row r="166">
       <c r="A166" s="8" t="inlineStr">
         <is>
-          <t>performance_rated_energy_temperature</t>
+          <t>performance__rated__energy__temperature</t>
         </is>
       </c>
       <c r="B166" s="8" t="inlineStr">
@@ -4572,7 +4572,7 @@
     <row r="167">
       <c r="A167" s="7" t="inlineStr">
         <is>
-          <t>performance_rated_resistance_cell</t>
+          <t>performance__rated__resistance__cell</t>
         </is>
       </c>
       <c r="B167" s="7" t="inlineStr">
@@ -4588,7 +4588,7 @@
     <row r="168">
       <c r="A168" s="8" t="inlineStr">
         <is>
-          <t>performance_rated_resistance_module</t>
+          <t>performance__rated__resistance__module</t>
         </is>
       </c>
       <c r="B168" s="8" t="inlineStr">
@@ -4601,7 +4601,7 @@
     <row r="169">
       <c r="A169" s="7" t="inlineStr">
         <is>
-          <t>performance_rated_resistance_pack</t>
+          <t>performance__rated__resistance__pack</t>
         </is>
       </c>
       <c r="B169" s="7" t="inlineStr">
@@ -4617,7 +4617,7 @@
     <row r="170">
       <c r="A170" s="8" t="inlineStr">
         <is>
-          <t>performance_rated_resistance_temperature</t>
+          <t>performance__rated__resistance__temperature</t>
         </is>
       </c>
       <c r="B170" s="8" t="inlineStr">
@@ -4630,7 +4630,7 @@
     <row r="171">
       <c r="A171" s="7" t="inlineStr">
         <is>
-          <t>performance_rated_power_value</t>
+          <t>performance__rated__power__value</t>
         </is>
       </c>
       <c r="B171" s="7" t="inlineStr">
@@ -4643,7 +4643,7 @@
     <row r="172">
       <c r="A172" s="8" t="inlineStr">
         <is>
-          <t>performance_rated_power_at20SoC</t>
+          <t>performance__rated__power__at20SoC</t>
         </is>
       </c>
       <c r="B172" s="8" t="inlineStr">
@@ -4657,7 +4657,7 @@
     <row r="173">
       <c r="A173" s="7" t="inlineStr">
         <is>
-          <t>performance_rated_power_at80SoC</t>
+          <t>performance__rated__power__at80SoC</t>
         </is>
       </c>
       <c r="B173" s="7" t="inlineStr">
@@ -4671,7 +4671,7 @@
     <row r="174">
       <c r="A174" s="8" t="inlineStr">
         <is>
-          <t>performance_rated_power_temperature</t>
+          <t>performance__rated__power__temperature</t>
         </is>
       </c>
       <c r="B174" s="8" t="inlineStr">
@@ -4684,7 +4684,7 @@
     <row r="175">
       <c r="A175" s="7" t="inlineStr">
         <is>
-          <t>performance_rated_capacity_value</t>
+          <t>performance__rated__capacity__value</t>
         </is>
       </c>
       <c r="B175" s="7" t="inlineStr">
@@ -4697,7 +4697,7 @@
     <row r="176">
       <c r="A176" s="8" t="inlineStr">
         <is>
-          <t>performance_rated_capacity_thresholdExhaustion</t>
+          <t>performance__rated__capacity__thresholdExhaustion</t>
         </is>
       </c>
       <c r="B176" s="8" t="inlineStr">
@@ -4711,7 +4711,7 @@
     <row r="177">
       <c r="A177" s="7" t="inlineStr">
         <is>
-          <t>performance_rated_capacity_temperature</t>
+          <t>performance__rated__capacity__temperature</t>
         </is>
       </c>
       <c r="B177" s="7" t="inlineStr">
@@ -4724,7 +4724,7 @@
     <row r="178">
       <c r="A178" s="8" t="inlineStr">
         <is>
-          <t>performance_rated_performanceDocument[0]_content</t>
+          <t>performance__rated__performanceDocument[0]__content</t>
         </is>
       </c>
       <c r="B178" s="8" t="inlineStr">
@@ -4737,7 +4737,7 @@
     <row r="179">
       <c r="A179" s="7" t="inlineStr">
         <is>
-          <t>performance_rated_performanceDocument[0]_contentType</t>
+          <t>performance__rated__performanceDocument[0]__contentType</t>
         </is>
       </c>
       <c r="B179" s="7" t="inlineStr">
@@ -4750,7 +4750,7 @@
     <row r="180">
       <c r="A180" s="8" t="inlineStr">
         <is>
-          <t>performance_rated_performanceDocument[0]_header</t>
+          <t>performance__rated__performanceDocument[0]__header</t>
         </is>
       </c>
       <c r="B180" s="8" t="inlineStr">
@@ -4763,7 +4763,7 @@
     <row r="181">
       <c r="A181" s="7" t="inlineStr">
         <is>
-          <t>performance_rated_temperature_lower</t>
+          <t>performance__rated__temperature__lower</t>
         </is>
       </c>
       <c r="B181" s="7" t="inlineStr">
@@ -4777,7 +4777,7 @@
     <row r="182">
       <c r="A182" s="8" t="inlineStr">
         <is>
-          <t>performance_rated_temperature_upper</t>
+          <t>performance__rated__temperature__upper</t>
         </is>
       </c>
       <c r="B182" s="8" t="inlineStr">
@@ -4791,7 +4791,7 @@
     <row r="183">
       <c r="A183" s="7" t="inlineStr">
         <is>
-          <t>performance_rated_selfDischargingRate</t>
+          <t>performance__rated__selfDischargingRate</t>
         </is>
       </c>
       <c r="B183" s="7" t="inlineStr">
@@ -4805,7 +4805,7 @@
     <row r="184">
       <c r="A184" s="8" t="inlineStr">
         <is>
-          <t>performance_rated_testReport[0]_content</t>
+          <t>performance__rated__testReport[0]__content</t>
         </is>
       </c>
       <c r="B184" s="8" t="inlineStr">
@@ -4818,7 +4818,7 @@
     <row r="185">
       <c r="A185" s="7" t="inlineStr">
         <is>
-          <t>performance_rated_testReport[0]_contentType</t>
+          <t>performance__rated__testReport[0]__contentType</t>
         </is>
       </c>
       <c r="B185" s="7" t="inlineStr">
@@ -4831,7 +4831,7 @@
     <row r="186">
       <c r="A186" s="8" t="inlineStr">
         <is>
-          <t>performance_rated_testReport[0]_header</t>
+          <t>performance__rated__testReport[0]__header</t>
         </is>
       </c>
       <c r="B186" s="8" t="inlineStr">
@@ -4844,7 +4844,7 @@
     <row r="187">
       <c r="A187" s="7" t="inlineStr">
         <is>
-          <t>performance_rated_lifetime_expectedYears</t>
+          <t>performance__rated__lifetime__expectedYears</t>
         </is>
       </c>
       <c r="B187" s="7" t="inlineStr">
@@ -4858,7 +4858,7 @@
     <row r="188">
       <c r="A188" s="8" t="inlineStr">
         <is>
-          <t>performance_rated_lifetime_report[0]_content</t>
+          <t>performance__rated__lifetime__report[0]__content</t>
         </is>
       </c>
       <c r="B188" s="8" t="inlineStr">
@@ -4871,7 +4871,7 @@
     <row r="189">
       <c r="A189" s="7" t="inlineStr">
         <is>
-          <t>performance_rated_lifetime_report[0]_contentType</t>
+          <t>performance__rated__lifetime__report[0]__contentType</t>
         </is>
       </c>
       <c r="B189" s="7" t="inlineStr">
@@ -4884,7 +4884,7 @@
     <row r="190">
       <c r="A190" s="8" t="inlineStr">
         <is>
-          <t>performance_rated_lifetime_report[0]_header</t>
+          <t>performance__rated__lifetime__report[0]__header</t>
         </is>
       </c>
       <c r="B190" s="8" t="inlineStr">
@@ -4897,7 +4897,7 @@
     <row r="191">
       <c r="A191" s="7" t="inlineStr">
         <is>
-          <t>performance_rated_lifetime_cycleLifeTesting_temperature</t>
+          <t>performance__rated__lifetime__cycleLifeTesting__temperature</t>
         </is>
       </c>
       <c r="B191" s="7" t="inlineStr">
@@ -4910,7 +4910,7 @@
     <row r="192">
       <c r="A192" s="8" t="inlineStr">
         <is>
-          <t>performance_rated_lifetime_cycleLifeTesting_cycles</t>
+          <t>performance__rated__lifetime__cycleLifeTesting__cycles</t>
         </is>
       </c>
       <c r="B192" s="8" t="inlineStr">
@@ -4923,7 +4923,7 @@
     <row r="193">
       <c r="A193" s="7" t="inlineStr">
         <is>
-          <t>performance_rated_lifetime_cycleLifeTesting_depthOfDischarge</t>
+          <t>performance__rated__lifetime__cycleLifeTesting__depthOfDischarge</t>
         </is>
       </c>
       <c r="B193" s="7" t="inlineStr">
@@ -4937,7 +4937,7 @@
     <row r="194">
       <c r="A194" s="8" t="inlineStr">
         <is>
-          <t>performance_rated_lifetime_cycleLifeTesting_appliedChargeRate</t>
+          <t>performance__rated__lifetime__cycleLifeTesting__appliedChargeRate</t>
         </is>
       </c>
       <c r="B194" s="8" t="inlineStr">
@@ -4953,7 +4953,7 @@
     <row r="195">
       <c r="A195" s="7" t="inlineStr">
         <is>
-          <t>performance_rated_lifetime_cycleLifeTesting_appliedDischargeRate</t>
+          <t>performance__rated__lifetime__cycleLifeTesting__appliedDischargeRate</t>
         </is>
       </c>
       <c r="B195" s="7" t="inlineStr">
@@ -4969,7 +4969,7 @@
     <row r="196">
       <c r="A196" s="8" t="inlineStr">
         <is>
-          <t>performance_dynamic_stateOfCharge_value</t>
+          <t>performance__dynamic__stateOfCharge__value</t>
         </is>
       </c>
       <c r="B196" s="8" t="inlineStr">
@@ -4982,7 +4982,7 @@
     <row r="197">
       <c r="A197" s="7" t="inlineStr">
         <is>
-          <t>performance_dynamic_stateOfCharge_time</t>
+          <t>performance__dynamic__stateOfCharge__time</t>
         </is>
       </c>
       <c r="B197" s="7" t="inlineStr">
@@ -4996,7 +4996,7 @@
     <row r="198">
       <c r="A198" s="8" t="inlineStr">
         <is>
-          <t>performance_dynamic_fullCycles_time</t>
+          <t>performance__dynamic__fullCycles__time</t>
         </is>
       </c>
       <c r="B198" s="8" t="inlineStr">
@@ -5010,7 +5010,7 @@
     <row r="199">
       <c r="A199" s="7" t="inlineStr">
         <is>
-          <t>performance_dynamic_fullCycles_value</t>
+          <t>performance__dynamic__fullCycles__value</t>
         </is>
       </c>
       <c r="B199" s="7" t="inlineStr">
@@ -5023,7 +5023,7 @@
     <row r="200">
       <c r="A200" s="8" t="inlineStr">
         <is>
-          <t>performance_dynamic_performanceDocument[0]_content</t>
+          <t>performance__dynamic__performanceDocument[0]__content</t>
         </is>
       </c>
       <c r="B200" s="8" t="inlineStr">
@@ -5036,7 +5036,7 @@
     <row r="201">
       <c r="A201" s="7" t="inlineStr">
         <is>
-          <t>performance_dynamic_performanceDocument[0]_contentType</t>
+          <t>performance__dynamic__performanceDocument[0]__contentType</t>
         </is>
       </c>
       <c r="B201" s="7" t="inlineStr">
@@ -5049,7 +5049,7 @@
     <row r="202">
       <c r="A202" s="8" t="inlineStr">
         <is>
-          <t>performance_dynamic_performanceDocument[0]_header</t>
+          <t>performance__dynamic__performanceDocument[0]__header</t>
         </is>
       </c>
       <c r="B202" s="8" t="inlineStr">
@@ -5062,7 +5062,7 @@
     <row r="203">
       <c r="A203" s="7" t="inlineStr">
         <is>
-          <t>performance_dynamic_selfDischargingRate</t>
+          <t>performance__dynamic__selfDischargingRate</t>
         </is>
       </c>
       <c r="B203" s="7" t="inlineStr">
@@ -5076,7 +5076,7 @@
     <row r="204">
       <c r="A204" s="8" t="inlineStr">
         <is>
-          <t>performance_dynamic_power_fade_value</t>
+          <t>performance__dynamic__power__fade__value</t>
         </is>
       </c>
       <c r="B204" s="8" t="inlineStr">
@@ -5089,7 +5089,7 @@
     <row r="205">
       <c r="A205" s="7" t="inlineStr">
         <is>
-          <t>performance_dynamic_power_fade_time</t>
+          <t>performance__dynamic__power__fade__time</t>
         </is>
       </c>
       <c r="B205" s="7" t="inlineStr">
@@ -5103,7 +5103,7 @@
     <row r="206">
       <c r="A206" s="8" t="inlineStr">
         <is>
-          <t>performance_dynamic_power_remaining_time</t>
+          <t>performance__dynamic__power__remaining__time</t>
         </is>
       </c>
       <c r="B206" s="8" t="inlineStr">
@@ -5117,7 +5117,7 @@
     <row r="207">
       <c r="A207" s="7" t="inlineStr">
         <is>
-          <t>performance_dynamic_power_remaining_value</t>
+          <t>performance__dynamic__power__remaining__value</t>
         </is>
       </c>
       <c r="B207" s="7" t="inlineStr">
@@ -5130,7 +5130,7 @@
     <row r="208">
       <c r="A208" s="8" t="inlineStr">
         <is>
-          <t>performance_dynamic_capacity_fade_value</t>
+          <t>performance__dynamic__capacity__fade__value</t>
         </is>
       </c>
       <c r="B208" s="8" t="inlineStr">
@@ -5143,7 +5143,7 @@
     <row r="209">
       <c r="A209" s="7" t="inlineStr">
         <is>
-          <t>performance_dynamic_capacity_fade_time</t>
+          <t>performance__dynamic__capacity__fade__time</t>
         </is>
       </c>
       <c r="B209" s="7" t="inlineStr">
@@ -5157,7 +5157,7 @@
     <row r="210">
       <c r="A210" s="8" t="inlineStr">
         <is>
-          <t>performance_dynamic_capacity_throughput_time</t>
+          <t>performance__dynamic__capacity__throughput__time</t>
         </is>
       </c>
       <c r="B210" s="8" t="inlineStr">
@@ -5171,7 +5171,7 @@
     <row r="211">
       <c r="A211" s="7" t="inlineStr">
         <is>
-          <t>performance_dynamic_capacity_throughput_value</t>
+          <t>performance__dynamic__capacity__throughput__value</t>
         </is>
       </c>
       <c r="B211" s="7" t="inlineStr">
@@ -5184,7 +5184,7 @@
     <row r="212">
       <c r="A212" s="8" t="inlineStr">
         <is>
-          <t>performance_dynamic_capacity_capacity_time</t>
+          <t>performance__dynamic__capacity__capacity__time</t>
         </is>
       </c>
       <c r="B212" s="8" t="inlineStr">
@@ -5198,7 +5198,7 @@
     <row r="213">
       <c r="A213" s="7" t="inlineStr">
         <is>
-          <t>performance_dynamic_capacity_capacity_value</t>
+          <t>performance__dynamic__capacity__capacity__value</t>
         </is>
       </c>
       <c r="B213" s="7" t="inlineStr">
@@ -5211,7 +5211,7 @@
     <row r="214">
       <c r="A214" s="8" t="inlineStr">
         <is>
-          <t>performance_dynamic_roundTripEfficiency_fade_value</t>
+          <t>performance__dynamic__roundTripEfficiency__fade__value</t>
         </is>
       </c>
       <c r="B214" s="8" t="inlineStr">
@@ -5224,7 +5224,7 @@
     <row r="215">
       <c r="A215" s="7" t="inlineStr">
         <is>
-          <t>performance_dynamic_roundTripEfficiency_fade_time</t>
+          <t>performance__dynamic__roundTripEfficiency__fade__time</t>
         </is>
       </c>
       <c r="B215" s="7" t="inlineStr">
@@ -5238,7 +5238,7 @@
     <row r="216">
       <c r="A216" s="8" t="inlineStr">
         <is>
-          <t>performance_dynamic_roundTripEfficiency_remaining_value</t>
+          <t>performance__dynamic__roundTripEfficiency__remaining__value</t>
         </is>
       </c>
       <c r="B216" s="8" t="inlineStr">
@@ -5251,7 +5251,7 @@
     <row r="217">
       <c r="A217" s="7" t="inlineStr">
         <is>
-          <t>performance_dynamic_roundTripEfficiency_remaining_time</t>
+          <t>performance__dynamic__roundTripEfficiency__remaining__time</t>
         </is>
       </c>
       <c r="B217" s="7" t="inlineStr">
@@ -5265,7 +5265,7 @@
     <row r="218">
       <c r="A218" s="8" t="inlineStr">
         <is>
-          <t>performance_dynamic_resistance_increase_pack_value</t>
+          <t>performance__dynamic__resistance__increase__pack__value</t>
         </is>
       </c>
       <c r="B218" s="8" t="inlineStr">
@@ -5278,7 +5278,7 @@
     <row r="219">
       <c r="A219" s="7" t="inlineStr">
         <is>
-          <t>performance_dynamic_resistance_increase_pack_time</t>
+          <t>performance__dynamic__resistance__increase__pack__time</t>
         </is>
       </c>
       <c r="B219" s="7" t="inlineStr">
@@ -5292,7 +5292,7 @@
     <row r="220">
       <c r="A220" s="8" t="inlineStr">
         <is>
-          <t>performance_dynamic_resistance_increase_module_value</t>
+          <t>performance__dynamic__resistance__increase__module__value</t>
         </is>
       </c>
       <c r="B220" s="8" t="inlineStr">
@@ -5305,7 +5305,7 @@
     <row r="221">
       <c r="A221" s="7" t="inlineStr">
         <is>
-          <t>performance_dynamic_resistance_increase_module_time</t>
+          <t>performance__dynamic__resistance__increase__module__time</t>
         </is>
       </c>
       <c r="B221" s="7" t="inlineStr">
@@ -5319,7 +5319,7 @@
     <row r="222">
       <c r="A222" s="8" t="inlineStr">
         <is>
-          <t>performance_dynamic_resistance_increase_cell_value</t>
+          <t>performance__dynamic__resistance__increase__cell__value</t>
         </is>
       </c>
       <c r="B222" s="8" t="inlineStr">
@@ -5332,7 +5332,7 @@
     <row r="223">
       <c r="A223" s="7" t="inlineStr">
         <is>
-          <t>performance_dynamic_resistance_increase_cell_time</t>
+          <t>performance__dynamic__resistance__increase__cell__time</t>
         </is>
       </c>
       <c r="B223" s="7" t="inlineStr">
@@ -5346,7 +5346,7 @@
     <row r="224">
       <c r="A224" s="8" t="inlineStr">
         <is>
-          <t>performance_dynamic_resistance_remaining_pack_time</t>
+          <t>performance__dynamic__resistance__remaining__pack__time</t>
         </is>
       </c>
       <c r="B224" s="8" t="inlineStr">
@@ -5360,7 +5360,7 @@
     <row r="225">
       <c r="A225" s="7" t="inlineStr">
         <is>
-          <t>performance_dynamic_resistance_remaining_pack_value</t>
+          <t>performance__dynamic__resistance__remaining__pack__value</t>
         </is>
       </c>
       <c r="B225" s="7" t="inlineStr">
@@ -5373,7 +5373,7 @@
     <row r="226">
       <c r="A226" s="8" t="inlineStr">
         <is>
-          <t>performance_dynamic_resistance_remaining_module_time</t>
+          <t>performance__dynamic__resistance__remaining__module__time</t>
         </is>
       </c>
       <c r="B226" s="8" t="inlineStr">
@@ -5387,7 +5387,7 @@
     <row r="227">
       <c r="A227" s="7" t="inlineStr">
         <is>
-          <t>performance_dynamic_resistance_remaining_module_value</t>
+          <t>performance__dynamic__resistance__remaining__module__value</t>
         </is>
       </c>
       <c r="B227" s="7" t="inlineStr">
@@ -5400,7 +5400,7 @@
     <row r="228">
       <c r="A228" s="8" t="inlineStr">
         <is>
-          <t>performance_dynamic_resistance_remaining_cell_time</t>
+          <t>performance__dynamic__resistance__remaining__cell__time</t>
         </is>
       </c>
       <c r="B228" s="8" t="inlineStr">
@@ -5414,7 +5414,7 @@
     <row r="229">
       <c r="A229" s="7" t="inlineStr">
         <is>
-          <t>performance_dynamic_resistance_remaining_cell_value</t>
+          <t>performance__dynamic__resistance__remaining__cell__value</t>
         </is>
       </c>
       <c r="B229" s="7" t="inlineStr">
@@ -5427,7 +5427,7 @@
     <row r="230">
       <c r="A230" s="8" t="inlineStr">
         <is>
-          <t>performance_dynamic_energy_soce_value</t>
+          <t>performance__dynamic__energy__soce__value</t>
         </is>
       </c>
       <c r="B230" s="8" t="inlineStr">
@@ -5440,7 +5440,7 @@
     <row r="231">
       <c r="A231" s="7" t="inlineStr">
         <is>
-          <t>performance_dynamic_energy_soce_time</t>
+          <t>performance__dynamic__energy__soce__time</t>
         </is>
       </c>
       <c r="B231" s="7" t="inlineStr">
@@ -5454,7 +5454,7 @@
     <row r="232">
       <c r="A232" s="8" t="inlineStr">
         <is>
-          <t>performance_dynamic_energy_remaining_time</t>
+          <t>performance__dynamic__energy__remaining__time</t>
         </is>
       </c>
       <c r="B232" s="8" t="inlineStr">
@@ -5468,7 +5468,7 @@
     <row r="233">
       <c r="A233" s="7" t="inlineStr">
         <is>
-          <t>performance_dynamic_energy_remaining_value</t>
+          <t>performance__dynamic__energy__remaining__value</t>
         </is>
       </c>
       <c r="B233" s="7" t="inlineStr">
@@ -5481,7 +5481,7 @@
     <row r="234">
       <c r="A234" s="8" t="inlineStr">
         <is>
-          <t>performance_dynamic_energy_throughput_time</t>
+          <t>performance__dynamic__energy__throughput__time</t>
         </is>
       </c>
       <c r="B234" s="8" t="inlineStr">
@@ -5495,7 +5495,7 @@
     <row r="235">
       <c r="A235" s="7" t="inlineStr">
         <is>
-          <t>performance_dynamic_energy_throughput_value</t>
+          <t>performance__dynamic__energy__throughput__value</t>
         </is>
       </c>
       <c r="B235" s="7" t="inlineStr">
@@ -5508,7 +5508,7 @@
     <row r="236">
       <c r="A236" s="8" t="inlineStr">
         <is>
-          <t>performance_dynamic_negativeEvents[0]_content</t>
+          <t>performance__dynamic__negativeEvents[0]__content</t>
         </is>
       </c>
       <c r="B236" s="8" t="inlineStr">
@@ -5521,7 +5521,7 @@
     <row r="237">
       <c r="A237" s="7" t="inlineStr">
         <is>
-          <t>performance_dynamic_negativeEvents[0]_contentType</t>
+          <t>performance__dynamic__negativeEvents[0]__contentType</t>
         </is>
       </c>
       <c r="B237" s="7" t="inlineStr">
@@ -5534,7 +5534,7 @@
     <row r="238">
       <c r="A238" s="8" t="inlineStr">
         <is>
-          <t>performance_dynamic_negativeEvents[0]_header</t>
+          <t>performance__dynamic__negativeEvents[0]__header</t>
         </is>
       </c>
       <c r="B238" s="8" t="inlineStr">
@@ -5547,7 +5547,7 @@
     <row r="239">
       <c r="A239" s="7" t="inlineStr">
         <is>
-          <t>performance_dynamic_operatingEnvironment[0]_content</t>
+          <t>performance__dynamic__operatingEnvironment[0]__content</t>
         </is>
       </c>
       <c r="B239" s="7" t="inlineStr">
@@ -5560,7 +5560,7 @@
     <row r="240">
       <c r="A240" s="8" t="inlineStr">
         <is>
-          <t>performance_dynamic_operatingEnvironment[0]_contentType</t>
+          <t>performance__dynamic__operatingEnvironment[0]__contentType</t>
         </is>
       </c>
       <c r="B240" s="8" t="inlineStr">
@@ -5573,7 +5573,7 @@
     <row r="241">
       <c r="A241" s="7" t="inlineStr">
         <is>
-          <t>performance_dynamic_operatingEnvironment[0]_header</t>
+          <t>performance__dynamic__operatingEnvironment[0]__header</t>
         </is>
       </c>
       <c r="B241" s="7" t="inlineStr">
@@ -5586,7 +5586,7 @@
     <row r="242">
       <c r="A242" s="8" t="inlineStr">
         <is>
-          <t>conformity_declarationOfConformityId</t>
+          <t>conformity__declarationOfConformityId</t>
         </is>
       </c>
       <c r="B242" s="8" t="inlineStr">
@@ -5600,7 +5600,7 @@
     <row r="243">
       <c r="A243" s="7" t="inlineStr">
         <is>
-          <t>conformity_declarationOfConformity[0]_content</t>
+          <t>conformity__declarationOfConformity[0]__content</t>
         </is>
       </c>
       <c r="B243" s="7" t="inlineStr">
@@ -5613,7 +5613,7 @@
     <row r="244">
       <c r="A244" s="8" t="inlineStr">
         <is>
-          <t>conformity_declarationOfConformity[0]_contentType</t>
+          <t>conformity__declarationOfConformity[0]__contentType</t>
         </is>
       </c>
       <c r="B244" s="8" t="inlineStr">
@@ -5626,7 +5626,7 @@
     <row r="245">
       <c r="A245" s="7" t="inlineStr">
         <is>
-          <t>conformity_declarationOfConformity[0]_header</t>
+          <t>conformity__declarationOfConformity[0]__header</t>
         </is>
       </c>
       <c r="B245" s="7" t="inlineStr">
@@ -5639,7 +5639,7 @@
     <row r="246">
       <c r="A246" s="8" t="inlineStr">
         <is>
-          <t>conformity_resultOfTestReport[0]_content</t>
+          <t>conformity__resultOfTestReport[0]__content</t>
         </is>
       </c>
       <c r="B246" s="8" t="inlineStr">
@@ -5652,7 +5652,7 @@
     <row r="247">
       <c r="A247" s="7" t="inlineStr">
         <is>
-          <t>conformity_resultOfTestReport[0]_contentType</t>
+          <t>conformity__resultOfTestReport[0]__contentType</t>
         </is>
       </c>
       <c r="B247" s="7" t="inlineStr">
@@ -5665,7 +5665,7 @@
     <row r="248">
       <c r="A248" s="8" t="inlineStr">
         <is>
-          <t>conformity_resultOfTestReport[0]_header</t>
+          <t>conformity__resultOfTestReport[0]__header</t>
         </is>
       </c>
       <c r="B248" s="8" t="inlineStr">
@@ -5678,7 +5678,7 @@
     <row r="249">
       <c r="A249" s="7" t="inlineStr">
         <is>
-          <t>conformity_thirdPartyAssurance[0]_content</t>
+          <t>conformity__thirdPartyAssurance[0]__content</t>
         </is>
       </c>
       <c r="B249" s="7" t="inlineStr">
@@ -5691,7 +5691,7 @@
     <row r="250">
       <c r="A250" s="8" t="inlineStr">
         <is>
-          <t>conformity_thirdPartyAssurance[0]_contentType</t>
+          <t>conformity__thirdPartyAssurance[0]__contentType</t>
         </is>
       </c>
       <c r="B250" s="8" t="inlineStr">
@@ -5704,7 +5704,7 @@
     <row r="251">
       <c r="A251" s="7" t="inlineStr">
         <is>
-          <t>conformity_thirdPartyAssurance[0]_header</t>
+          <t>conformity__thirdPartyAssurance[0]__header</t>
         </is>
       </c>
       <c r="B251" s="7" t="inlineStr">
@@ -5717,7 +5717,7 @@
     <row r="252">
       <c r="A252" s="8" t="inlineStr">
         <is>
-          <t>conformity_dueDiligencePolicy[0]_content</t>
+          <t>conformity__dueDiligencePolicy[0]__content</t>
         </is>
       </c>
       <c r="B252" s="8" t="inlineStr">
@@ -5730,7 +5730,7 @@
     <row r="253">
       <c r="A253" s="7" t="inlineStr">
         <is>
-          <t>conformity_dueDiligencePolicy[0]_contentType</t>
+          <t>conformity__dueDiligencePolicy[0]__contentType</t>
         </is>
       </c>
       <c r="B253" s="7" t="inlineStr">
@@ -5743,7 +5743,7 @@
     <row r="254">
       <c r="A254" s="8" t="inlineStr">
         <is>
-          <t>conformity_dueDiligencePolicy[0]_header</t>
+          <t>conformity__dueDiligencePolicy[0]__header</t>
         </is>
       </c>
       <c r="B254" s="8" t="inlineStr">
@@ -5756,7 +5756,7 @@
     <row r="255">
       <c r="A255" s="7" t="inlineStr">
         <is>
-          <t>safety_usableExtinguishAgent[0]_document[0]_content</t>
+          <t>safety__usableExtinguishAgent[0]__document[0]__content</t>
         </is>
       </c>
       <c r="B255" s="7" t="inlineStr">
@@ -5769,7 +5769,7 @@
     <row r="256">
       <c r="A256" s="8" t="inlineStr">
         <is>
-          <t>safety_usableExtinguishAgent[0]_document[0]_contentType</t>
+          <t>safety__usableExtinguishAgent[0]__document[0]__contentType</t>
         </is>
       </c>
       <c r="B256" s="8" t="inlineStr">
@@ -5782,7 +5782,7 @@
     <row r="257">
       <c r="A257" s="7" t="inlineStr">
         <is>
-          <t>safety_usableExtinguishAgent[0]_document[0]_header</t>
+          <t>safety__usableExtinguishAgent[0]__document[0]__header</t>
         </is>
       </c>
       <c r="B257" s="7" t="inlineStr">
@@ -5795,7 +5795,7 @@
     <row r="258">
       <c r="A258" s="8" t="inlineStr">
         <is>
-          <t>safety_usableExtinguishAgent[0]_media</t>
+          <t>safety__usableExtinguishAgent[0]__media</t>
         </is>
       </c>
       <c r="B258" s="8" t="inlineStr">
@@ -5809,7 +5809,7 @@
     <row r="259">
       <c r="A259" s="7" t="inlineStr">
         <is>
-          <t>safety_usableExtinguishAgent[0]_fireClass</t>
+          <t>safety__usableExtinguishAgent[0]__fireClass</t>
         </is>
       </c>
       <c r="B259" s="7" t="inlineStr">
@@ -5822,7 +5822,7 @@
     <row r="260">
       <c r="A260" s="8" t="inlineStr">
         <is>
-          <t>safety_safetyMeasures[0]_content</t>
+          <t>safety__safetyMeasures[0]__content</t>
         </is>
       </c>
       <c r="B260" s="8" t="inlineStr">
@@ -5835,7 +5835,7 @@
     <row r="261">
       <c r="A261" s="7" t="inlineStr">
         <is>
-          <t>safety_safetyMeasures[0]_contentType</t>
+          <t>safety__safetyMeasures[0]__contentType</t>
         </is>
       </c>
       <c r="B261" s="7" t="inlineStr">
@@ -5848,7 +5848,7 @@
     <row r="262">
       <c r="A262" s="8" t="inlineStr">
         <is>
-          <t>safety_safetyMeasures[0]_header</t>
+          <t>safety__safetyMeasures[0]__header</t>
         </is>
       </c>
       <c r="B262" s="8" t="inlineStr">
@@ -5861,7 +5861,7 @@
     <row r="263">
       <c r="A263" s="7" t="inlineStr">
         <is>
-          <t>safety_meaningOfLabels[0]_content</t>
+          <t>safety__meaningOfLabels[0]__content</t>
         </is>
       </c>
       <c r="B263" s="7" t="inlineStr">
@@ -5874,7 +5874,7 @@
     <row r="264">
       <c r="A264" s="8" t="inlineStr">
         <is>
-          <t>safety_meaningOfLabels[0]_contentType</t>
+          <t>safety__meaningOfLabels[0]__contentType</t>
         </is>
       </c>
       <c r="B264" s="8" t="inlineStr">
@@ -5887,7 +5887,7 @@
     <row r="265">
       <c r="A265" s="7" t="inlineStr">
         <is>
-          <t>safety_meaningOfLabels[0]_header</t>
+          <t>safety__meaningOfLabels[0]__header</t>
         </is>
       </c>
       <c r="B265" s="7" t="inlineStr">
@@ -5900,7 +5900,7 @@
     <row r="266">
       <c r="A266" s="8" t="inlineStr">
         <is>
-          <t>safety_safeDischarging[0]_content</t>
+          <t>safety__safeDischarging[0]__content</t>
         </is>
       </c>
       <c r="B266" s="8" t="inlineStr">
@@ -5913,7 +5913,7 @@
     <row r="267">
       <c r="A267" s="7" t="inlineStr">
         <is>
-          <t>safety_safeDischarging[0]_contentType</t>
+          <t>safety__safeDischarging[0]__contentType</t>
         </is>
       </c>
       <c r="B267" s="7" t="inlineStr">
@@ -5926,7 +5926,7 @@
     <row r="268">
       <c r="A268" s="8" t="inlineStr">
         <is>
-          <t>safety_safeDischarging[0]_header</t>
+          <t>safety__safeDischarging[0]__header</t>
         </is>
       </c>
       <c r="B268" s="8" t="inlineStr">
@@ -5939,7 +5939,7 @@
     <row r="269">
       <c r="A269" s="7" t="inlineStr">
         <is>
-          <t>safety_dismantling[0]_content</t>
+          <t>safety__dismantling[0]__content</t>
         </is>
       </c>
       <c r="B269" s="7" t="inlineStr">
@@ -5952,7 +5952,7 @@
     <row r="270">
       <c r="A270" s="8" t="inlineStr">
         <is>
-          <t>safety_dismantling[0]_contentType</t>
+          <t>safety__dismantling[0]__contentType</t>
         </is>
       </c>
       <c r="B270" s="8" t="inlineStr">
@@ -5965,7 +5965,7 @@
     <row r="271">
       <c r="A271" s="7" t="inlineStr">
         <is>
-          <t>safety_dismantling[0]_header</t>
+          <t>safety__dismantling[0]__header</t>
         </is>
       </c>
       <c r="B271" s="7" t="inlineStr">
@@ -5978,7 +5978,7 @@
     <row r="272">
       <c r="A272" s="8" t="inlineStr">
         <is>
-          <t>safety_removalFromAppliance[0]_content</t>
+          <t>safety__removalFromAppliance[0]__content</t>
         </is>
       </c>
       <c r="B272" s="8" t="inlineStr">
@@ -5991,7 +5991,7 @@
     <row r="273">
       <c r="A273" s="7" t="inlineStr">
         <is>
-          <t>safety_removalFromAppliance[0]_contentType</t>
+          <t>safety__removalFromAppliance[0]__contentType</t>
         </is>
       </c>
       <c r="B273" s="7" t="inlineStr">
@@ -6004,7 +6004,7 @@
     <row r="274">
       <c r="A274" s="8" t="inlineStr">
         <is>
-          <t>safety_removalFromAppliance[0]_header</t>
+          <t>safety__removalFromAppliance[0]__header</t>
         </is>
       </c>
       <c r="B274" s="8" t="inlineStr">
@@ -6017,7 +6017,7 @@
     <row r="275">
       <c r="A275" s="7" t="inlineStr">
         <is>
-          <t>sources[0]_content</t>
+          <t>sources[0]__content</t>
         </is>
       </c>
       <c r="B275" s="7" t="inlineStr">
@@ -6030,7 +6030,7 @@
     <row r="276">
       <c r="A276" s="8" t="inlineStr">
         <is>
-          <t>sources[0]_category</t>
+          <t>sources[0]__category</t>
         </is>
       </c>
       <c r="B276" s="8" t="inlineStr">
@@ -6058,7 +6058,7 @@
     <row r="277">
       <c r="A277" s="7" t="inlineStr">
         <is>
-          <t>sources[0]_type</t>
+          <t>sources[0]__type</t>
         </is>
       </c>
       <c r="B277" s="7" t="inlineStr">
@@ -6071,7 +6071,7 @@
     <row r="278">
       <c r="A278" s="8" t="inlineStr">
         <is>
-          <t>sources[0]_header</t>
+          <t>sources[0]__header</t>
         </is>
       </c>
       <c r="B278" s="8" t="inlineStr">
@@ -6084,7 +6084,7 @@
     <row r="279">
       <c r="A279" s="7" t="inlineStr">
         <is>
-          <t>metadata_version</t>
+          <t>metadata__version</t>
         </is>
       </c>
       <c r="B279" s="7" t="inlineStr">
@@ -6098,7 +6098,7 @@
     <row r="280">
       <c r="A280" s="8" t="inlineStr">
         <is>
-          <t>metadata_status</t>
+          <t>metadata__status</t>
         </is>
       </c>
       <c r="B280" s="8" t="inlineStr">
@@ -6115,7 +6115,7 @@
     <row r="281">
       <c r="A281" s="7" t="inlineStr">
         <is>
-          <t>metadata_expirationDate</t>
+          <t>metadata__expirationDate</t>
         </is>
       </c>
       <c r="B281" s="7" t="inlineStr">
@@ -6129,7 +6129,7 @@
     <row r="282">
       <c r="A282" s="8" t="inlineStr">
         <is>
-          <t>metadata_issueDate</t>
+          <t>metadata__issueDate</t>
         </is>
       </c>
       <c r="B282" s="8" t="inlineStr">
@@ -6142,7 +6142,7 @@
     <row r="283">
       <c r="A283" s="7" t="inlineStr">
         <is>
-          <t>metadata_economicOperatorId</t>
+          <t>metadata__economicOperatorId</t>
         </is>
       </c>
       <c r="B283" s="7" t="inlineStr">
@@ -6156,7 +6156,7 @@
     <row r="284">
       <c r="A284" s="8" t="inlineStr">
         <is>
-          <t>metadata_passportIdentifier</t>
+          <t>metadata__passportIdentifier</t>
         </is>
       </c>
       <c r="B284" s="8" t="inlineStr">
@@ -6169,7 +6169,7 @@
     <row r="285">
       <c r="A285" s="7" t="inlineStr">
         <is>
-          <t>metadata_predecessor</t>
+          <t>metadata__predecessor</t>
         </is>
       </c>
       <c r="B285" s="7" t="inlineStr">
@@ -6183,7 +6183,7 @@
     <row r="286">
       <c r="A286" s="8" t="inlineStr">
         <is>
-          <t>metadata_backupReference</t>
+          <t>metadata__backupReference</t>
         </is>
       </c>
       <c r="B286" s="8" t="inlineStr">
@@ -6199,7 +6199,7 @@
     <row r="287">
       <c r="A287" s="7" t="inlineStr">
         <is>
-          <t>metadata_registrationIdentifier</t>
+          <t>metadata__registrationIdentifier</t>
         </is>
       </c>
       <c r="B287" s="7" t="inlineStr">
@@ -6213,7 +6213,7 @@
     <row r="288">
       <c r="A288" s="8" t="inlineStr">
         <is>
-          <t>metadata_lastModification</t>
+          <t>metadata__lastModification</t>
         </is>
       </c>
       <c r="B288" s="8" t="inlineStr">
@@ -6226,7 +6226,7 @@
     <row r="289">
       <c r="A289" s="7" t="inlineStr">
         <is>
-          <t>commercial_placedOnMarket</t>
+          <t>commercial__placedOnMarket</t>
         </is>
       </c>
       <c r="B289" s="7" t="inlineStr">
@@ -6239,7 +6239,7 @@
     <row r="290">
       <c r="A290" s="8" t="inlineStr">
         <is>
-          <t>commercial_purpose[0]</t>
+          <t>commercial__purpose[0]</t>
         </is>
       </c>
       <c r="B290" s="8" t="inlineStr">
@@ -6252,7 +6252,7 @@
     <row r="291">
       <c r="A291" s="7" t="inlineStr">
         <is>
-          <t>handling_content_producer[0]_id</t>
+          <t>handling__content__producer[0]__id</t>
         </is>
       </c>
       <c r="B291" s="7" t="inlineStr">
@@ -6265,7 +6265,7 @@
     <row r="292">
       <c r="A292" s="8" t="inlineStr">
         <is>
-          <t>handling_content_sparePart[0]_manufacturerPartId</t>
+          <t>handling__content__sparePart[0]__manufacturerPartId</t>
         </is>
       </c>
       <c r="B292" s="8" t="inlineStr">
@@ -6278,7 +6278,7 @@
     <row r="293">
       <c r="A293" s="7" t="inlineStr">
         <is>
-          <t>handling_content_sparePart[0]_nameAtManufacturer</t>
+          <t>handling__content__sparePart[0]__nameAtManufacturer</t>
         </is>
       </c>
       <c r="B293" s="7" t="inlineStr">
@@ -6291,7 +6291,7 @@
     <row r="294">
       <c r="A294" s="8" t="inlineStr">
         <is>
-          <t>handling_applicable</t>
+          <t>handling__applicable</t>
         </is>
       </c>
       <c r="B294" s="8" t="inlineStr">

--- a/excel_reporting_templates/BatteryPass-6.0.0-schema-reporting_template.xlsx
+++ b/excel_reporting_templates/BatteryPass-6.0.0-schema-reporting_template.xlsx
@@ -484,7 +484,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="2.4" customWidth="1" min="1" max="1"/>
+    <col width="9.6" customWidth="1" min="1" max="1"/>
     <col width="21.6" customWidth="1" min="2" max="2"/>
     <col width="16.8" customWidth="1" min="3" max="3"/>
     <col width="28.8" customWidth="1" min="4" max="4"/>
@@ -779,7 +779,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>dtwin_id</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -2299,7 +2299,7 @@
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>dtwin_id</t>
         </is>
       </c>
       <c r="B5" s="7" t="inlineStr">
@@ -6345,7 +6345,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>164e105757350590ca1a5b15392f0d8e63b9789a</t>
+          <t>41f43fae0e26ae5cfe94c2ce213309dcee6a0803</t>
         </is>
       </c>
     </row>
@@ -6357,7 +6357,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://github.com/dataspacesolutions/sldt-semantic-models/commit/164e105757350590ca1a5b15392f0d8e63b9789a</t>
+          <t>https://github.com/dataspacesolutions/sldt-semantic-models/commit/41f43fae0e26ae5cfe94c2ce213309dcee6a0803</t>
         </is>
       </c>
     </row>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-05-22 09:09:41+00:00</t>
+          <t>2025-03-10 14:48:29+00:00</t>
         </is>
       </c>
     </row>
